--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="168">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -230,7 +230,10 @@
     <t xml:space="preserve">y_label</t>
   </si>
   <si>
-    <t xml:space="preserve">cattegory</t>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition</t>
   </si>
   <si>
     <t xml:space="preserve">weight</t>
@@ -245,6 +248,9 @@
     <t xml:space="preserve">misc</t>
   </si>
   <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
     <t xml:space="preserve">muon1_pt</t>
   </si>
   <si>
@@ -353,6 +359,9 @@
     <t xml:space="preserve">jet</t>
   </si>
   <si>
+    <t xml:space="preserve">n_jets &gt; 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">jet_phi</t>
   </si>
   <si>
@@ -371,6 +380,12 @@
     <t xml:space="preserve">bjet_pt</t>
   </si>
   <si>
+    <t xml:space="preserve">p_{T}^{b jet} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_bjets &gt; 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">bjet_phi</t>
   </si>
   <si>
@@ -398,7 +413,7 @@
     <t xml:space="preserve">n_fwdjets</t>
   </si>
   <si>
-    <t xml:space="preserve">N_{fwdjets}</t>
+    <t xml:space="preserve">N_{forward jets}</t>
   </si>
   <si>
     <t xml:space="preserve">dijet_mass</t>
@@ -410,6 +425,9 @@
     <t xml:space="preserve">Entries \,/\, 20 \, GeV</t>
   </si>
   <si>
+    <t xml:space="preserve">n_bjets &gt; 0 and n_jets &gt; 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">dijet_phi</t>
   </si>
   <si>
@@ -447,6 +465,9 @@
   </si>
   <si>
     <t xml:space="preserve">M_{\mu \mu b} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entries \,/\, 12 \, GeV</t>
   </si>
   <si>
     <t xml:space="preserve">lepton_jet</t>
@@ -670,10 +691,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -682,7 +705,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3826530612245"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5765306122449"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.67857142857143"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -795,7 +818,7 @@
         <v>25.81</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>17</v>
@@ -1087,29 +1110,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
@@ -1118,18 +1121,18 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1</v>
@@ -1138,18 +1141,18 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1</v>
@@ -1158,32 +1161,52 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1203,20 +1226,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.015306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.2040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,10 +1268,13 @@
       <c r="G1" s="0" t="s">
         <v>69</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>25</v>
@@ -1256,18 +1286,21 @@
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>26</v>
@@ -1279,18 +1312,21 @@
         <v>150</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>24</v>
@@ -1302,18 +1338,21 @@
         <v>2.4</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>77</v>
+      <c r="H5" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>30</v>
@@ -1327,18 +1366,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>25</v>
@@ -1347,21 +1389,24 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>26</v>
@@ -1373,18 +1418,21 @@
         <v>100</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>24</v>
@@ -1396,18 +1444,21 @@
         <v>2.4</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>77</v>
+      <c r="H9" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>30</v>
@@ -1421,18 +1472,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>25</v>
@@ -1441,21 +1495,24 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -1467,18 +1524,21 @@
         <v>3</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -1491,18 +1551,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -1511,21 +1574,24 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>29</v>
@@ -1537,18 +1603,21 @@
         <v>70</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -1557,21 +1626,24 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -1583,18 +1655,21 @@
         <v>6</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -1608,41 +1683,47 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>25</v>
@@ -1654,18 +1735,21 @@
         <v>150</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>30</v>
@@ -1679,18 +1763,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -1702,18 +1789,21 @@
         <v>4.7</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>50</v>
@@ -1725,18 +1815,21 @@
         <v>0.2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>25</v>
@@ -1748,18 +1841,21 @@
         <v>150</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -1773,18 +1869,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>24</v>
@@ -1796,18 +1895,21 @@
         <v>2.4</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>50</v>
@@ -1819,18 +1921,21 @@
         <v>0.2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>8</v>
@@ -1842,18 +1947,21 @@
         <v>7.5</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>4</v>
@@ -1865,18 +1973,21 @@
         <v>3.5</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>4</v>
@@ -1888,18 +1999,21 @@
         <v>3.5</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>50</v>
@@ -1911,18 +2025,21 @@
         <v>1000</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>30</v>
@@ -1936,18 +2053,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>24</v>
@@ -1959,18 +2079,21 @@
         <v>2.4</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>40</v>
@@ -1979,21 +2102,24 @@
         <v>0</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>40</v>
@@ -2005,18 +2131,21 @@
         <v>10</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -2028,18 +2157,21 @@
         <v>150</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -2053,18 +2185,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>50</v>
@@ -2073,21 +2208,24 @@
         <v>0</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>30</v>
@@ -2101,18 +2239,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>24</v>
@@ -2124,18 +2265,21 @@
         <v>2.4</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>40</v>
@@ -2144,21 +2288,24 @@
         <v>0</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>30</v>
@@ -2170,18 +2317,21 @@
         <v>3</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>30</v>
@@ -2194,18 +2344,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>30</v>
@@ -2217,18 +2370,21 @@
         <v>7</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>50</v>
@@ -2240,18 +2396,21 @@
         <v>1000</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>30</v>
@@ -2263,18 +2422,21 @@
         <v>3</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>30</v>
@@ -2287,13 +2449,16 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" state="visible" r:id="rId2"/>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">jet</t>
   </si>
   <si>
-    <t xml:space="preserve">n_jets &gt; 0</t>
+    <t xml:space="preserve">n_jets &gt; 0 or n_fwdjets &gt; 0</t>
   </si>
   <si>
     <t xml:space="preserve">jet_phi</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">Entries \,/\, 20 \, GeV</t>
   </si>
   <si>
-    <t xml:space="preserve">n_bjets &gt; 0 and n_jets &gt; 0</t>
+    <t xml:space="preserve">n_bjets &gt; 0 and (n_jets &gt; 0 or n_fwdjets &gt; 0)</t>
   </si>
   <si>
     <t xml:space="preserve">dijet_phi</t>
@@ -693,7 +693,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
@@ -701,12 +701,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5918367346939"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.67857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7908163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4030612244898"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -1228,10 +1228,10 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
+      <selection pane="bottomLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1239,10 +1239,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.2040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.4489795918367"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2070,13 +2070,13 @@
         <v>137</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>-2.4</v>
+        <v>-5</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>138</v>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -537,7 +537,7 @@
     <t xml:space="preserve">M_{\mu \mu j} [GeV]</t>
   </si>
   <si>
-    <t xml:space="preserve">n_jets &gt; 0</t>
+    <t xml:space="preserve">n_jets &gt; 0 or n_fwdjets &gt;0</t>
   </si>
   <si>
     <t xml:space="preserve">dilepton_j_phi</t>
@@ -740,21 +740,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="H12" activeCellId="1" sqref="2:2 H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8724489795918"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.984693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0867346938776"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -859,32 +859,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>107.66</v>
+        <v>25.81</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -893,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>19</v>
@@ -901,30 +881,30 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3531.9</v>
+        <v>107.66</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>860.5</v>
+        <v>3531.9</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -933,7 +913,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>25</v>
@@ -941,39 +921,39 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>57.25</v>
+        <v>860.5</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>5.09</v>
+        <v>57.25</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>31</v>
@@ -981,10 +961,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1.086</v>
+        <v>5.09</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -993,7 +973,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>31</v>
@@ -1001,19 +981,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2.47</v>
+        <v>1.086</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>31</v>
@@ -1021,10 +1001,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.71</v>
+        <v>2.47</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -1033,7 +1013,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>31</v>
@@ -1041,10 +1021,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3.179</v>
+        <v>0.71</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -1053,18 +1033,18 @@
         <v>38</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1.76</v>
+        <v>3.179</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -1073,7 +1053,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>44</v>
@@ -1081,10 +1061,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>56.4</v>
+        <v>1.76</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -1093,7 +1073,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>44</v>
@@ -1101,10 +1081,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>30.7</v>
+        <v>56.4</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -1113,7 +1093,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>44</v>
@@ -1121,10 +1101,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>11.177</v>
+        <v>30.7</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -1133,7 +1113,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>44</v>
@@ -1141,7 +1121,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>11.177</v>
@@ -1153,55 +1133,55 @@
         <v>38</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>11.177</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B23" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1</v>
@@ -1210,18 +1190,18 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>1</v>
@@ -1230,18 +1210,18 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>1</v>
@@ -1250,32 +1230,52 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1300,18 +1300,19 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="D19" activeCellId="1" sqref="2:2 D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3622448979592"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.4948979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5918367346939"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.7908163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.9795918367347"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -1742,13 +1743,13 @@
         <v>112</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>113</v>
@@ -1835,8 +1836,8 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1844,10 +1845,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.4948979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5918367346939"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.7908163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.9795918367347"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2595,13 +2596,13 @@
         <v>169</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>170</v>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="variables" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="variables_mumu" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="variables_ee" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="215">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -72,6 +73,18 @@
     <t xml:space="preserve">Data (2012D)</t>
   </si>
   <si>
+    <t xml:space="preserve">electron_2012A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electron_2012B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electron_2012C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electron_2012D</t>
+  </si>
+  <si>
     <t xml:space="preserve">ttbar_lep</t>
   </si>
   <si>
@@ -189,7 +202,7 @@
     <t xml:space="preserve">$\sf \bar{t}$ (tW)</t>
   </si>
   <si>
-    <t xml:space="preserve">bprime_Xb</t>
+    <t xml:space="preserve">bprime_xb</t>
   </si>
   <si>
     <t xml:space="preserve">#3451a1</t>
@@ -574,6 +587,87 @@
   </si>
   <si>
     <t xml:space="preserve">|\Delta R(\mu\mu,\, j)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(e, e)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(e, e)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(e, e)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e,e} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e,e} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{ee}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{ee}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{ee}/M_{ee}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{ee b} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{ee b}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{ee b}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{ee b} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(ee,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(ee,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(ee,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e e jj} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(ee,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(ee,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(ee,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{eej} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{eej}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{eej}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{eej} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(ee,\, j)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(ee,\, j)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(ee,\, j)|</t>
   </si>
 </sst>
 </file>
@@ -654,13 +748,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -740,21 +838,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H12" activeCellId="1" sqref="2:2 H12"/>
+      <selection pane="bottomLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9591836734694"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1836734693878"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -859,409 +957,409 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>25.81</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>107.66</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3531.9</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>860.5</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>57.25</v>
+        <v>25.81</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>5.09</v>
+        <v>107.66</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1.086</v>
+        <v>3531.9</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2.47</v>
+        <v>860.5</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.71</v>
+        <v>57.25</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3.179</v>
+        <v>5.09</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F16" s="0" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1.76</v>
+        <v>1.086</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>56.4</v>
+        <v>2.47</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>30.7</v>
+        <v>0.71</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>11.177</v>
+        <v>3.179</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>11.177</v>
+        <v>1.76</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="B24" s="0" t="n">
+        <v>11.177</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F24" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="B25" s="0" t="n">
+        <v>11.177</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="F25" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="B27" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>31</v>
+      <c r="F27" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1</v>
@@ -1270,13 +1368,93 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>44</v>
+      <c r="E31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1300,51 +1478,51 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D19" activeCellId="1" sqref="2:2 D19"/>
+      <selection pane="bottomLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4540816326531"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.6938775510204"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.9795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.1785714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>25</v>
@@ -1356,21 +1534,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>30</v>
@@ -1384,21 +1562,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -1410,21 +1588,21 @@
         <v>4.7</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>50</v>
@@ -1436,21 +1614,21 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>25</v>
@@ -1462,21 +1640,21 @@
         <v>150</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>30</v>
@@ -1490,21 +1668,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>24</v>
@@ -1516,21 +1694,21 @@
         <v>2.4</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H9" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>50</v>
@@ -1542,21 +1720,21 @@
         <v>0.2</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -1568,21 +1746,21 @@
         <v>7.5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4</v>
@@ -1594,21 +1772,21 @@
         <v>3.5</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>4</v>
@@ -1620,21 +1798,21 @@
         <v>3.5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>50</v>
@@ -1646,21 +1824,21 @@
         <v>1000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -1674,21 +1852,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H15" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>25</v>
@@ -1700,21 +1878,21 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>40</v>
@@ -1726,21 +1904,21 @@
         <v>250</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>25</v>
@@ -1752,21 +1930,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -1778,21 +1956,21 @@
         <v>150</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -1806,16 +1984,16 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H21" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1836,8 +2014,8 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1845,42 +2023,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.6938775510204"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.9795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.1785714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -1892,21 +2070,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -1918,21 +2096,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -1946,21 +2124,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -1972,21 +2150,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -1998,21 +2176,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -2024,21 +2202,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -2052,21 +2230,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -2078,21 +2256,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -2104,21 +2282,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -2131,21 +2309,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -2157,21 +2335,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -2183,21 +2361,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -2209,21 +2387,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -2235,21 +2413,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -2263,21 +2441,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -2289,21 +2467,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -2315,21 +2493,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -2343,21 +2521,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -2369,21 +2547,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -2395,21 +2573,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -2421,21 +2599,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -2448,21 +2626,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -2474,21 +2652,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -2500,21 +2678,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -2526,21 +2704,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -2553,21 +2731,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -2579,21 +2757,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -2605,21 +2783,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -2633,21 +2811,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -2659,21 +2837,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -2685,21 +2863,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -2711,21 +2889,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -2738,21 +2916,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -2764,16 +2942,974 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G39" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.6938775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.1785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>148</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>152</v>
+      </c>
       <c r="H39" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" state="visible" r:id="rId2"/>
@@ -840,7 +840,7 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
@@ -848,11 +848,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0612244897959"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1836734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.2857142857143"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1485,12 +1485,12 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4540816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5510204081633"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.6938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.780612244898"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.1785714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3673469387755"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2014,8 +2014,8 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2023,10 +2023,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.6938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.780612244898"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.1785714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3673469387755"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2167,10 +2167,10 @@
         <v>129</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>100</v>
@@ -2981,10 +2981,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.6938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.780612244898"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.1785714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3673469387755"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="datasets" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="variables" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="variables_mumu" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="variables_ee" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="datasets_2016" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="variables" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="variables_mumu" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="variables_ee" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="variables_emu" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="254">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -235,6 +237,42 @@
     <t xml:space="preserve">#f1ca2d</t>
   </si>
   <si>
+    <t xml:space="preserve">muon_2016A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electron_2016A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electron_2016B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electron_2016C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electron_2016D</t>
+  </si>
+  <si>
     <t xml:space="preserve">variable_name</t>
   </si>
   <si>
@@ -415,6 +453,9 @@
     <t xml:space="preserve">lepton2_pt</t>
   </si>
   <si>
+    <t xml:space="preserve">Entries \,/\, 2 \, GeV</t>
+  </si>
+  <si>
     <t xml:space="preserve">lepton2_eta</t>
   </si>
   <si>
@@ -448,9 +489,6 @@
     <t xml:space="preserve">M_{\mu, \mu} \, [GeV]</t>
   </si>
   <si>
-    <t xml:space="preserve">Entries \,/\, 2 \, GeV</t>
-  </si>
-  <si>
     <t xml:space="preserve">dilepton_pt</t>
   </si>
   <si>
@@ -668,6 +706,87 @@
   </si>
   <si>
     <t xml:space="preserve">|\Delta R(ee,\, j)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entries \,/\, 2.5 \, GeV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(e, \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(e, \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(e, \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e \mu} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e \mu} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{e \mu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{e \mu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e \mu}/M_{e \mu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e \mu b} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{e\mu b}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{e \mu b}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e \mu b} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(e\mu,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(e\mu,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(e\mu,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e \mu jj} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(e\mu,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(e\mu,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(e\mu,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e \mu j} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{e\mu j}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{e \mu j}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e \mu j} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(e\mu,\, j)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(e\mu,\, j)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(e\mu,\, j)|</t>
   </si>
 </sst>
 </file>
@@ -843,16 +962,16 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="C27" activeCellId="2" sqref="A2:A9 E2:E9 C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2602040816327"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4744897959184"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1473,527 +1592,621 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A2:A9 E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.780612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>77</v>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>4.7</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2.4</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>8</v>
+        <v>25.81</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>7.5</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4</v>
+        <v>107.66</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>3.5</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>4</v>
+        <v>3531.9</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>3.5</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>50</v>
+        <v>860.5</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1000</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>30</v>
+        <v>57.25</v>
       </c>
       <c r="C15" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>25</v>
+        <v>5.09</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="F17" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>25</v>
+        <v>2.47</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>108</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>30</v>
+        <v>3.179</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>30</v>
+        <v>1.76</v>
       </c>
       <c r="C21" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>11.177</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>11.177</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2012,453 +2225,455 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D19" activeCellId="2" sqref="A2:A9 E2:E9 D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5510204081633"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.780612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.969387755102"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3673469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.75"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-2.4</v>
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2.4</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C5" s="0" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2.4</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>250</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>250</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2467,47 +2682,47 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>500</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -2521,437 +2736,16 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2973,7 +2767,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="2" sqref="A2:A9 E2:E9 F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2981,42 +2775,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.780612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.969387755102"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3673469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.75"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3028,21 +2822,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3054,21 +2848,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3082,21 +2876,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3108,47 +2902,47 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3160,21 +2954,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3188,21 +2982,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3214,21 +3008,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -3240,21 +3034,979 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>135</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="2" sqref="A2:A9 E2:E9 E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>148</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -3267,21 +4019,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3293,21 +4045,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -3319,21 +4071,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -3345,21 +4097,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -3371,21 +4123,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -3399,21 +4151,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -3425,21 +4177,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -3451,21 +4203,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -3479,21 +4231,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -3505,21 +4257,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -3531,21 +4283,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -3557,21 +4309,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -3584,21 +4336,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -3610,21 +4362,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -3636,21 +4388,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -3662,21 +4414,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -3689,21 +4441,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -3715,21 +4467,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -3741,21 +4493,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -3769,21 +4521,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -3795,21 +4547,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -3821,21 +4573,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -3847,21 +4599,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -3874,21 +4626,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -3900,16 +4652,974 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F39" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="2" sqref="A2:A9 E2:E9 E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="G39" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="259">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -273,6 +273,9 @@
     <t xml:space="preserve">electron_2016D</t>
   </si>
   <si>
+    <t xml:space="preserve">ttjets</t>
+  </si>
+  <si>
     <t xml:space="preserve">variable_name</t>
   </si>
   <si>
@@ -297,6 +300,21 @@
     <t xml:space="preserve">condition</t>
   </si>
   <si>
+    <t xml:space="preserve">n_pu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_{pu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entries\,/\, bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
     <t xml:space="preserve">jet_pt</t>
   </si>
   <si>
@@ -361,9 +379,6 @@
   </si>
   <si>
     <t xml:space="preserve">N_{jets}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
   </si>
   <si>
     <t xml:space="preserve">n_bjets</t>
@@ -962,16 +977,16 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C27" activeCellId="2" sqref="A2:A9 E2:E9 C27"/>
+      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5612244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1592,19 +1607,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A2:A9 E2:E9"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5612244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1791,10 +1806,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>25.81</v>
+        <v>831.76</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -1803,7 +1818,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>23</v>
@@ -1811,10 +1826,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>107.66</v>
+        <v>25.81</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -1823,7 +1838,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>23</v>
@@ -1831,30 +1846,30 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3531.9</v>
+        <v>107.66</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>860.5</v>
+        <v>5765.4</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -1863,7 +1878,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>29</v>
@@ -1871,39 +1886,39 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>57.25</v>
+        <v>18610</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>5.09</v>
+        <v>57.25</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>35</v>
@@ -1911,10 +1926,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1.086</v>
+        <v>5.595</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -1923,7 +1938,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>35</v>
@@ -1931,19 +1946,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2.47</v>
+        <v>5.26</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>35</v>
@@ -1951,10 +1966,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.71</v>
+        <v>3.22</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -1963,7 +1978,7 @@
         <v>42</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>35</v>
@@ -1971,10 +1986,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3.179</v>
+        <v>0.564</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -1983,18 +1998,18 @@
         <v>42</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1.76</v>
+        <v>10.306</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -2003,7 +2018,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>48</v>
@@ -2011,10 +2026,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>56.4</v>
+        <v>1.76</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -2023,7 +2038,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>48</v>
@@ -2031,10 +2046,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>30.7</v>
+        <v>216.84</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -2043,7 +2058,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>48</v>
@@ -2051,10 +2066,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>11.177</v>
+        <v>136</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -2063,7 +2078,7 @@
         <v>42</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>48</v>
@@ -2071,10 +2086,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>11.177</v>
+        <v>35.6</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -2083,55 +2098,55 @@
         <v>42</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B28" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="0" t="s">
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E28" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F28" s="0" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>1</v>
@@ -2140,18 +2155,18 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>1</v>
@@ -2160,18 +2175,18 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
@@ -2180,32 +2195,52 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="B34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2225,12 +2260,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D19" activeCellId="2" sqref="A2:A9 E2:E9 D19"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2239,169 +2274,148 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5510204081633"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0714285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.75"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.8520408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>150</v>
+        <v>80.5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C4" s="0" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="E6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>25</v>
+        <v>-4.7</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>150</v>
+        <v>4.7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,263 +2423,263 @@
         <v>106</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="E10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>-0.5</v>
+        <v>-2.4</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>-0.5</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="F15" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="E17" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,7 +2690,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>5</v>
@@ -2685,67 +2699,119 @@
         <v>129</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="E22" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>112</v>
+      <c r="E23" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2766,8 +2832,8 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="2" sqref="A2:A9 E2:E9 F7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2775,42 +2841,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0714285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.75"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.8520408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -2822,21 +2888,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -2848,21 +2914,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -2876,21 +2942,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -2902,21 +2968,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -2928,21 +2994,21 @@
         <v>80</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -2954,21 +3020,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -2982,21 +3048,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3008,21 +3074,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -3034,21 +3100,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -3061,21 +3127,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3087,21 +3153,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -3113,21 +3179,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -3139,21 +3205,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -3165,21 +3231,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -3193,21 +3259,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -3219,21 +3285,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -3245,21 +3311,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -3273,21 +3339,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -3299,21 +3365,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -3325,21 +3391,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -3351,21 +3417,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -3378,21 +3444,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -3404,21 +3470,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -3430,21 +3496,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -3456,21 +3522,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -3483,21 +3549,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -3509,21 +3575,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -3535,21 +3601,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -3563,21 +3629,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -3589,21 +3655,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -3615,21 +3681,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -3641,21 +3707,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -3668,21 +3734,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -3694,16 +3760,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3725,7 +3791,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="2" sqref="A2:A9 E2:E9 E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3733,42 +3799,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0714285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.75"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.8520408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3780,21 +3846,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3806,21 +3872,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3834,21 +3900,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3860,21 +3926,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -3886,21 +3952,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3912,21 +3978,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3940,21 +4006,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3966,21 +4032,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -3992,21 +4058,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4019,21 +4085,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4045,21 +4111,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -4071,21 +4137,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4097,21 +4163,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -4123,21 +4189,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4151,21 +4217,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4177,21 +4243,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -4203,21 +4269,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -4231,21 +4297,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -4257,21 +4323,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -4283,21 +4349,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -4309,21 +4375,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -4336,21 +4402,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4362,21 +4428,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -4388,21 +4454,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -4414,21 +4480,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -4441,21 +4507,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4467,21 +4533,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -4493,21 +4559,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -4521,21 +4587,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -4547,21 +4613,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -4573,21 +4639,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -4599,21 +4665,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -4626,21 +4692,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4652,16 +4718,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4683,7 +4749,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="2" sqref="A2:A9 E2:E9 E28"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4691,42 +4757,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0714285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.75"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.8520408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4738,21 +4804,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4764,21 +4830,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4792,21 +4858,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4818,21 +4884,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -4844,21 +4910,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4870,21 +4936,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4898,21 +4964,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4924,21 +4990,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4950,21 +5016,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4977,21 +5043,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5003,21 +5069,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -5029,21 +5095,21 @@
         <v>200</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5055,21 +5121,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5081,21 +5147,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5109,21 +5175,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5135,21 +5201,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5161,21 +5227,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5189,21 +5255,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5215,21 +5281,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5241,21 +5307,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5267,21 +5333,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5294,21 +5360,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5320,21 +5386,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5346,21 +5412,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5372,21 +5438,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5399,21 +5465,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5425,21 +5491,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5451,21 +5517,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5479,21 +5545,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5505,21 +5571,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5531,21 +5597,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5557,21 +5623,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5584,21 +5650,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5610,16 +5676,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="263">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -213,6 +213,9 @@
     <t xml:space="preserve">$\sf B’\rightarrow Xb$</t>
   </si>
   <si>
+    <t xml:space="preserve">fcnc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Data</t>
   </si>
   <si>
@@ -237,12 +240,6 @@
     <t xml:space="preserve">#f1ca2d</t>
   </si>
   <si>
-    <t xml:space="preserve">muon_2016A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data (2016A)</t>
-  </si>
-  <si>
     <t xml:space="preserve">muon_2016B</t>
   </si>
   <si>
@@ -261,7 +258,22 @@
     <t xml:space="preserve">Data (2016D)</t>
   </si>
   <si>
-    <t xml:space="preserve">electron_2016A</t>
+    <t xml:space="preserve">muon_2016E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016E)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016G)</t>
   </si>
   <si>
     <t xml:space="preserve">electron_2016B</t>
@@ -972,12 +984,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -986,7 +998,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6632653061224"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1491,29 +1503,30 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
+      <c r="B28" s="0" t="n">
+        <f aca="false">252*0.001</f>
+        <v>0.252</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>1</v>
@@ -1522,18 +1535,18 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>1</v>
@@ -1542,18 +1555,18 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
@@ -1562,32 +1575,52 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="B34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1607,10 +1640,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1619,7 +1652,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6632653061224"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1646,7 +1679,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -1658,7 +1691,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>9</v>
@@ -1666,7 +1699,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -1678,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>9</v>
@@ -1686,7 +1719,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -1698,7 +1731,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>9</v>
@@ -1706,7 +1739,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -1718,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>9</v>
@@ -1726,7 +1759,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -1738,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>9</v>
@@ -1746,7 +1779,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -1758,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>9</v>
@@ -1766,7 +1799,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -1778,7 +1811,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>9</v>
@@ -1786,7 +1819,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1798,38 +1831,38 @@
         <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>831.76</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>23</v>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>25.81</v>
+        <v>831.76</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -1838,7 +1871,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>23</v>
@@ -1846,10 +1879,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>107.66</v>
+        <v>25.81</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -1858,7 +1891,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>23</v>
@@ -1866,30 +1899,30 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>5765.4</v>
+        <v>107.66</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>18610</v>
+        <v>5765.4</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -1898,7 +1931,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>29</v>
@@ -1906,39 +1939,39 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>57.25</v>
+        <v>18610</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>5.595</v>
+        <v>57.25</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>35</v>
@@ -1946,10 +1979,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>5.26</v>
+        <v>5.595</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -1958,7 +1991,7 @@
         <v>37</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>35</v>
@@ -1966,19 +1999,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>3.22</v>
+        <v>5.26</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>35</v>
@@ -1986,10 +2019,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.564</v>
+        <v>3.22</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -1998,7 +2031,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>35</v>
@@ -2006,10 +2039,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10.306</v>
+        <v>0.564</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -2018,18 +2051,18 @@
         <v>42</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1.76</v>
+        <v>10.306</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -2038,7 +2071,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>48</v>
@@ -2046,10 +2079,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>216.84</v>
+        <v>1.76</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -2058,7 +2091,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>48</v>
@@ -2066,10 +2099,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>136</v>
+        <v>216.84</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -2078,7 +2111,7 @@
         <v>42</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>48</v>
@@ -2086,10 +2119,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>35.6</v>
+        <v>136</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -2098,7 +2131,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>48</v>
@@ -2106,7 +2139,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>35.6</v>
@@ -2118,55 +2151,55 @@
         <v>42</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B29" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E29" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F29" s="0" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>1</v>
@@ -2175,18 +2208,18 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
@@ -2195,18 +2228,18 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1</v>
@@ -2215,32 +2248,52 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="B35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2274,42 +2327,42 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5510204081633"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1683673469388"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.8520408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.9387755102041"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -2321,26 +2374,26 @@
         <v>80.5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>25</v>
@@ -2352,21 +2405,21 @@
         <v>150</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>30</v>
@@ -2380,21 +2433,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>30</v>
@@ -2406,21 +2459,21 @@
         <v>4.7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="H7" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>50</v>
@@ -2432,21 +2485,21 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>25</v>
@@ -2458,21 +2511,21 @@
         <v>150</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>30</v>
@@ -2486,21 +2539,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>24</v>
@@ -2512,21 +2565,21 @@
         <v>2.4</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -2538,21 +2591,21 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>8</v>
@@ -2564,21 +2617,21 @@
         <v>7.5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -2590,21 +2643,21 @@
         <v>3.5</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4</v>
@@ -2616,21 +2669,21 @@
         <v>3.5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>50</v>
@@ -2642,21 +2695,21 @@
         <v>1000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -2670,21 +2723,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="H17" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>25</v>
@@ -2696,21 +2749,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>40</v>
@@ -2722,21 +2775,21 @@
         <v>250</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>25</v>
@@ -2748,21 +2801,21 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="H20" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>30</v>
@@ -2774,21 +2827,21 @@
         <v>150</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G22" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -2802,16 +2855,16 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F23" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2841,42 +2894,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1683673469388"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.8520408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.9387755102041"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -2888,21 +2941,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -2914,21 +2967,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -2942,21 +2995,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -2968,21 +3021,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -2994,21 +3047,21 @@
         <v>80</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3020,21 +3073,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3048,21 +3101,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3074,21 +3127,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -3100,21 +3153,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -3127,21 +3180,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3153,21 +3206,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -3179,21 +3232,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -3205,21 +3258,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -3231,21 +3284,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -3259,21 +3312,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -3285,21 +3338,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -3311,21 +3364,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -3339,21 +3392,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -3365,21 +3418,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -3391,21 +3444,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -3417,21 +3470,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -3444,21 +3497,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -3470,21 +3523,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -3496,21 +3549,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -3522,21 +3575,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -3549,21 +3602,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -3575,21 +3628,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -3601,21 +3654,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -3629,21 +3682,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -3655,21 +3708,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -3681,21 +3734,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -3707,21 +3760,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -3734,21 +3787,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -3760,16 +3813,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3799,42 +3852,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1683673469388"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.8520408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.9387755102041"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3846,21 +3899,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3872,21 +3925,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3900,21 +3953,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3926,21 +3979,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -3952,21 +4005,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3978,21 +4031,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4006,21 +4059,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4032,21 +4085,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4058,21 +4111,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4085,21 +4138,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4111,21 +4164,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -4137,21 +4190,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4163,21 +4216,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -4189,21 +4242,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4217,21 +4270,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4243,21 +4296,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -4269,21 +4322,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -4297,21 +4350,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -4323,21 +4376,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -4349,21 +4402,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -4375,21 +4428,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -4402,21 +4455,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4428,21 +4481,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -4454,21 +4507,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -4480,21 +4533,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -4507,21 +4560,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4533,21 +4586,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -4559,21 +4612,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -4587,21 +4640,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -4613,21 +4666,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -4639,21 +4692,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -4665,21 +4718,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -4692,21 +4745,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4718,16 +4771,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4757,42 +4810,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1683673469388"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.8520408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.9387755102041"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4804,21 +4857,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4830,21 +4883,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4858,21 +4911,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4884,21 +4937,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -4910,21 +4963,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4936,21 +4989,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4964,21 +5017,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4990,21 +5043,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5016,21 +5069,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5043,21 +5096,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5069,21 +5122,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -5095,21 +5148,21 @@
         <v>200</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5121,21 +5174,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5147,21 +5200,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5175,21 +5228,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5201,21 +5254,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5227,21 +5280,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5255,21 +5308,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5281,21 +5334,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5307,21 +5360,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5333,21 +5386,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5360,21 +5413,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5386,21 +5439,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5412,21 +5465,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5438,21 +5491,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5465,21 +5518,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5491,21 +5544,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5517,21 +5570,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5545,21 +5598,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5571,21 +5624,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5597,21 +5650,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5623,21 +5676,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5650,21 +5703,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5676,16 +5729,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="265">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t xml:space="preserve">fcnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ed418d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\sf t\rightarrow hc$</t>
   </si>
   <si>
     <t xml:space="preserve">Data</t>
@@ -986,10 +992,10 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1508,17 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B28" s="0" t="n">
-        <f aca="false">252*0.001</f>
-        <v>0.252</v>
+        <v>0.5</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>62</v>
@@ -1538,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
@@ -1555,10 +1560,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>23</v>
@@ -1575,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>29</v>
@@ -1595,10 +1600,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
@@ -1615,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>48</v>
@@ -1642,8 +1647,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1679,7 +1684,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -1691,7 +1696,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>9</v>
@@ -1699,7 +1704,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -1711,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>9</v>
@@ -1719,7 +1724,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -1731,7 +1736,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>9</v>
@@ -1739,7 +1744,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -1751,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>9</v>
@@ -1759,7 +1764,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -1771,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>9</v>
@@ -1779,7 +1784,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -1791,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>9</v>
@@ -1799,7 +1804,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -1811,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>9</v>
@@ -1819,7 +1824,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1831,7 +1836,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>9</v>
@@ -1839,7 +1844,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -1851,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>9</v>
@@ -1859,7 +1864,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>831.76</v>
@@ -1871,7 +1876,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>23</v>
@@ -2211,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
@@ -2228,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>23</v>
@@ -2248,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>29</v>
@@ -2268,10 +2273,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>35</v>
@@ -2288,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>48</v>
@@ -2336,33 +2341,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -2374,26 +2379,26 @@
         <v>80.5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>25</v>
@@ -2405,21 +2410,21 @@
         <v>150</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>30</v>
@@ -2433,21 +2438,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>30</v>
@@ -2459,21 +2464,21 @@
         <v>4.7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>50</v>
@@ -2485,21 +2490,21 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>25</v>
@@ -2511,21 +2516,21 @@
         <v>150</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>30</v>
@@ -2539,21 +2544,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>24</v>
@@ -2565,21 +2570,21 @@
         <v>2.4</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -2591,21 +2596,21 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>8</v>
@@ -2617,21 +2622,21 @@
         <v>7.5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -2643,21 +2648,21 @@
         <v>3.5</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4</v>
@@ -2669,21 +2674,21 @@
         <v>3.5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>50</v>
@@ -2695,21 +2700,21 @@
         <v>1000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -2723,21 +2728,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>25</v>
@@ -2749,21 +2754,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>40</v>
@@ -2775,21 +2780,21 @@
         <v>250</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>25</v>
@@ -2801,21 +2806,21 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>30</v>
@@ -2827,21 +2832,21 @@
         <v>150</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -2855,16 +2860,16 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2903,33 +2908,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -2941,21 +2946,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -2967,21 +2972,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -2995,21 +3000,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3021,21 +3026,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -3047,21 +3052,21 @@
         <v>80</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3073,21 +3078,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3101,21 +3106,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3127,21 +3132,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -3153,21 +3158,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -3180,21 +3185,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3206,21 +3211,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -3232,21 +3237,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -3258,21 +3263,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -3284,21 +3289,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -3312,21 +3317,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -3338,21 +3343,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -3364,21 +3369,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -3392,21 +3397,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>173</v>
-      </c>
       <c r="H21" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -3418,21 +3423,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -3444,21 +3449,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -3470,21 +3475,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -3497,21 +3502,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -3523,21 +3528,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -3549,21 +3554,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -3575,21 +3580,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -3602,21 +3607,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -3628,21 +3633,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -3654,21 +3659,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -3682,21 +3687,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -3708,21 +3713,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -3734,21 +3739,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -3760,21 +3765,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -3787,21 +3792,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -3813,16 +3818,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3861,33 +3866,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3899,21 +3904,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3925,21 +3930,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3953,21 +3958,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3979,21 +3984,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -4005,21 +4010,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4031,21 +4036,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4059,21 +4064,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4085,21 +4090,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4111,21 +4116,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4138,21 +4143,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4164,21 +4169,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -4190,21 +4195,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4216,21 +4221,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -4242,21 +4247,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4270,21 +4275,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4296,21 +4301,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -4322,21 +4327,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -4350,21 +4355,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -4376,21 +4381,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -4402,21 +4407,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -4428,21 +4433,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -4455,21 +4460,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4481,21 +4486,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -4507,21 +4512,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -4533,21 +4538,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -4560,21 +4565,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4586,21 +4591,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -4612,21 +4617,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -4640,21 +4645,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -4666,21 +4671,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -4692,21 +4697,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -4718,21 +4723,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -4745,21 +4750,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4771,16 +4776,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4819,33 +4824,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4857,21 +4862,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4883,21 +4888,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4911,21 +4916,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4937,21 +4942,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -4963,21 +4968,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4989,21 +4994,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -5017,21 +5022,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -5043,21 +5048,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5069,21 +5074,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5096,21 +5101,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5122,21 +5127,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -5148,21 +5153,21 @@
         <v>200</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5174,21 +5179,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5200,21 +5205,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5228,21 +5233,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5254,21 +5259,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5280,21 +5285,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5308,21 +5313,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5334,21 +5339,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5360,21 +5365,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5386,21 +5391,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5413,21 +5418,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5439,21 +5444,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5465,21 +5470,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5491,21 +5496,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5518,21 +5523,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5544,21 +5549,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5570,21 +5575,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5598,21 +5603,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5624,21 +5629,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5650,21 +5655,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5676,21 +5681,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5703,21 +5708,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5729,16 +5734,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -992,7 +992,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
@@ -1004,7 +1004,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7602040816327"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1657,7 +1657,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7602040816327"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2332,10 +2332,10 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5510204081633"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2602040816327"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.1275510204082"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2890,8 +2890,8 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2899,10 +2899,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2602040816327"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.1275510204082"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3046,10 +3046,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>145</v>
@@ -3857,10 +3857,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2602040816327"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.1275510204082"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4815,10 +4815,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2602040816327"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.1275510204082"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="284">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -117,12 +117,60 @@
     <t xml:space="preserve">zjets</t>
   </si>
   <si>
+    <t xml:space="preserve">z1jets_m-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DY+1jet (M &gt; 50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z2jets_m-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DY+2jet (M &gt; 50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z3jets_m-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DY+3jet (M &gt; 50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z4jets_m-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DY+4jet (M &gt; 50)</t>
+  </si>
+  <si>
     <t xml:space="preserve">zjets_m-10to50</t>
   </si>
   <si>
     <t xml:space="preserve">Z+jets (10 &lt; M &lt; 50)</t>
   </si>
   <si>
+    <t xml:space="preserve">z1jets_m-10to50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DY+1jet (10 &lt; M &lt; 50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z2jets_m-10to50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DY+2jet (10 &lt; M &lt; 50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z3jets_m-10to50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DY+3jet (10 &lt; M &lt; 50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z4jets_m-10to50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DY+4jet (10 &lt; M &lt; 50)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ww</t>
   </si>
   <si>
@@ -417,298 +465,307 @@
     <t xml:space="preserve">M_{jj} [GeV]</t>
   </si>
   <si>
+    <t xml:space="preserve">Entries \,/\, 25 \, GeV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_bjets &gt; 0 and (n_jets &gt; 0 or n_fwdjets &gt; 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dijet_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{jj}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dijet_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{jj}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dijet_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{jj} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entries \,/\, 10 \, GeV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dijet_pt_over_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{jj}/M_{jj}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met_mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MET \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_partons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_{partons}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_iso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isolation \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entries \,/\, 0.4 \, GeV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entries \,/\, 2 \, GeV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_iso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(\mu, \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(\mu, \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(\mu, \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{\mu, \mu} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu, \mu} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{\mu \mu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{\mu \mu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_pt_over_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu \mu}/M_{\mu \mu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_b_mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{\mu \mu b} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton_jet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_b_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{\mu\mu b}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_b_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{\mu \mu b}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_b_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu \mu b} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_b_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_b_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_b_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(\mu\mu,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four_body_mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{\mu \mu jj} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four_body_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four_body_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four_body_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(\mu\mu,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j_mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{\mu \mu j} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_jets &gt; 0 or n_fwdjets &gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{\mu\mu j}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{\mu \mu j}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu \mu j} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, j)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, j)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(\mu\mu,\, j)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(e, e)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(e, e)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(e, e)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e,e} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e,e} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{ee}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{ee}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{ee}/M_{ee}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{ee b} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{ee b}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{ee b}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{ee b} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(ee,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(ee,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(ee,\, b)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e e jj} [GeV]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entries \,/\, 20 \, GeV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_bjets &gt; 0 and (n_jets &gt; 0 or n_fwdjets &gt; 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dijet_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{jj}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dijet_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{jj}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dijet_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{jj} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entries \,/\, 10 \, GeV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dijet_pt_over_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{jj}/M_{jj}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">met_mag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MET \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">met_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu} \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isolation \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entries \,/\, 0.4 \, GeV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entries \,/\, 2 \, GeV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton_delta_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(\mu, \mu)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton_delta_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(\mu, \mu)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton_delta_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(\mu, \mu)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{\mu, \mu} \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu, \mu} \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{\mu \mu}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{\mu \mu}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_pt_over_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu \mu}/M_{\mu \mu}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_b_mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{\mu \mu b} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton_jet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_b_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{\mu\mu b}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_b_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{\mu \mu b}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_b_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu \mu b} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_b_delta_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, b)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_b_delta_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, b)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_b_delta_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(\mu\mu,\, b)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four_body_mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{\mu \mu jj} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four_body_delta_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, jj)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four_body_delta_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, jj)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four_body_delta_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(\mu\mu,\, jj)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j_mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{\mu \mu j} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_jets &gt; 0 or n_fwdjets &gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{\mu\mu j}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{\mu \mu j}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu \mu j} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j_delta_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, j)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j_delta_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, j)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j_delta_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(\mu\mu,\, j)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{e} \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(e, e)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(e, e)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(e, e)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{e,e} \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{e,e} \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{ee}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{ee}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{ee}/M_{ee}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{ee b} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{ee b}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{ee b}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{ee b} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(ee,\, b)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(ee,\, b)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(ee,\, b)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{e e jj} [GeV]</t>
   </si>
   <si>
     <t xml:space="preserve">|\Delta\eta(ee,\, jj)|</t>
@@ -990,12 +1047,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1004,7 +1061,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.0510204081633"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1254,7 +1311,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>860.5</v>
+        <v>671</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -1274,239 +1331,259 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>57.25</v>
+        <v>216.7</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="F15" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>5.09</v>
+        <v>61.8</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1.086</v>
+        <v>27.58</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F17" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2.47</v>
+        <v>11050</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.71</v>
+        <v>859</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3.179</v>
+        <v>371.64</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1.76</v>
+        <v>102.6</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>56.4</v>
+        <v>36.4</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>30.7</v>
+        <v>57.25</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>11.177</v>
+        <v>5.09</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>11.177</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="B26" s="0" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>48</v>
+      <c r="E26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.03</v>
+        <v>0.71</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,119 +1591,259 @@
         <v>62</v>
       </c>
       <c r="B28" s="0" t="n">
+        <v>3.179</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>11.177</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>11.177</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>48</v>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1865,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1657,7 +1874,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.0510204081633"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1684,7 +1901,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -1696,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>9</v>
@@ -1704,7 +1921,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -1716,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>9</v>
@@ -1724,7 +1941,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -1736,7 +1953,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>9</v>
@@ -1744,7 +1961,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -1756,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>9</v>
@@ -1764,7 +1981,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -1776,7 +1993,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>9</v>
@@ -1784,7 +2001,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -1796,7 +2013,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>9</v>
@@ -1804,7 +2021,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -1816,7 +2033,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>9</v>
@@ -1824,7 +2041,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1836,7 +2053,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>9</v>
@@ -1844,7 +2061,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -1856,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>9</v>
@@ -1864,7 +2081,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>831.76</v>
@@ -1876,7 +2093,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>23</v>
@@ -1944,7 +2161,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>18610</v>
@@ -1956,7 +2173,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>29</v>
@@ -1964,7 +2181,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>57.25</v>
@@ -1973,18 +2190,18 @@
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5.595</v>
@@ -1993,18 +2210,18 @@
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.26</v>
@@ -2013,18 +2230,18 @@
         <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3.22</v>
@@ -2033,18 +2250,18 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.564</v>
@@ -2053,18 +2270,18 @@
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10.306</v>
@@ -2073,18 +2290,18 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1.76</v>
@@ -2093,18 +2310,18 @@
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>216.84</v>
@@ -2113,18 +2330,18 @@
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>136</v>
@@ -2133,18 +2350,18 @@
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>35.6</v>
@@ -2153,18 +2370,18 @@
         <v>1</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>35.6</v>
@@ -2173,18 +2390,18 @@
         <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.03</v>
@@ -2193,13 +2410,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,7 +2433,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
@@ -2233,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>23</v>
@@ -2253,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>29</v>
@@ -2264,7 +2481,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>1</v>
@@ -2273,18 +2490,18 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1</v>
@@ -2293,13 +2510,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2318,12 +2535,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2332,42 +2549,42 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5510204081633"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4591836734694"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.1275510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.515306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -2379,26 +2596,26 @@
         <v>80.5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>25</v>
@@ -2410,21 +2627,21 @@
         <v>150</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>30</v>
@@ -2438,21 +2655,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>30</v>
@@ -2464,21 +2681,21 @@
         <v>4.7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>50</v>
@@ -2490,21 +2707,21 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>25</v>
@@ -2516,21 +2733,21 @@
         <v>150</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>30</v>
@@ -2544,21 +2761,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>24</v>
@@ -2570,21 +2787,21 @@
         <v>2.4</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -2596,21 +2813,21 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>8</v>
@@ -2622,21 +2839,21 @@
         <v>7.5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -2648,21 +2865,21 @@
         <v>3.5</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4</v>
@@ -2674,24 +2891,24 @@
         <v>3.5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2700,21 +2917,21 @@
         <v>1000</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -2728,21 +2945,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>25</v>
@@ -2754,21 +2971,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>40</v>
@@ -2780,21 +2997,21 @@
         <v>250</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>25</v>
@@ -2806,21 +3023,21 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>30</v>
@@ -2832,21 +3049,21 @@
         <v>150</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -2860,16 +3077,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2890,8 +3133,8 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2899,42 +3142,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4591836734694"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.1275510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.515306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -2946,21 +3189,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -2972,21 +3215,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3000,21 +3243,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3026,47 +3269,47 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3078,21 +3321,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3106,21 +3349,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3132,21 +3375,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -3158,21 +3401,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -3185,21 +3428,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3211,21 +3454,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -3237,21 +3480,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -3263,21 +3506,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -3289,21 +3532,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -3317,21 +3560,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -3343,21 +3586,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -3369,21 +3612,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -3397,21 +3640,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -3423,21 +3666,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -3449,21 +3692,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -3475,21 +3718,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -3502,21 +3745,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -3528,24 +3771,24 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>100</v>
@@ -3554,21 +3797,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -3580,21 +3823,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -3607,21 +3850,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="H30" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -3633,21 +3876,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -3659,21 +3902,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -3687,21 +3930,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -3713,21 +3956,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -3739,21 +3982,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -3765,21 +4008,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -3792,21 +4035,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -3818,16 +4061,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3857,42 +4100,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4591836734694"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.1275510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.515306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3904,21 +4147,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3930,21 +4173,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3958,21 +4201,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3984,21 +4227,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -4010,21 +4253,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4036,21 +4279,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4064,21 +4307,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4090,21 +4333,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4116,21 +4359,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4143,21 +4386,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4169,21 +4412,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -4195,21 +4438,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4221,21 +4464,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -4247,21 +4490,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4275,21 +4518,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4301,21 +4544,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -4327,21 +4570,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -4355,21 +4598,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -4381,21 +4624,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -4407,21 +4650,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -4433,21 +4676,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -4460,21 +4703,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4486,21 +4729,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -4512,21 +4755,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -4538,21 +4781,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -4565,21 +4808,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4591,21 +4834,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -4617,21 +4860,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -4645,21 +4888,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -4671,21 +4914,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -4697,21 +4940,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -4723,21 +4966,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -4750,21 +4993,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4776,16 +5019,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4815,42 +5058,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4591836734694"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.1275510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.515306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4862,21 +5105,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4888,21 +5131,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4916,21 +5159,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4942,21 +5185,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -4968,21 +5211,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4994,21 +5237,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -5022,21 +5265,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -5048,21 +5291,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5074,21 +5317,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5101,21 +5344,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5127,21 +5370,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -5153,21 +5396,21 @@
         <v>200</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5179,21 +5422,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5205,21 +5448,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5233,21 +5476,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5259,21 +5502,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5285,21 +5528,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5313,21 +5556,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5339,21 +5582,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5365,21 +5608,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5391,21 +5634,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5418,21 +5661,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5444,21 +5687,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5470,21 +5713,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5496,21 +5739,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5523,21 +5766,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5549,21 +5792,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5575,21 +5818,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5603,21 +5846,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5629,21 +5872,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5655,21 +5898,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5681,21 +5924,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5708,21 +5951,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5734,16 +5977,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="293">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -261,6 +261,15 @@
     <t xml:space="preserve">$\sf B’\rightarrow Xb$</t>
   </si>
   <si>
+    <t xml:space="preserve">bprime_xbxb_semilep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#b9516c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\sf B’B’\rightarrow XbXb$</t>
+  </si>
+  <si>
     <t xml:space="preserve">fcnc</t>
   </si>
   <si>
@@ -459,6 +468,27 @@
     <t xml:space="preserve">N_{forward jets}</t>
   </si>
   <si>
+    <t xml:space="preserve">jet_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(b, j)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_bjets &gt; 0 and (n_jets &gt; 0 or n_fwdjets &gt; 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jet_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(b, j)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jet_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\Delta R(b, j)</t>
+  </si>
+  <si>
     <t xml:space="preserve">dijet_mass</t>
   </si>
   <si>
@@ -466,9 +496,6 @@
   </si>
   <si>
     <t xml:space="preserve">Entries \,/\, 25 \, GeV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_bjets &gt; 0 and (n_jets &gt; 0 or n_fwdjets &gt; 0)</t>
   </si>
   <si>
     <t xml:space="preserve">dijet_phi</t>
@@ -1047,12 +1074,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1061,7 +1088,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.0510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1377551020408"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1711,7 +1738,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.03</v>
+        <v>0.053</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -1731,7 +1758,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -1746,29 +1773,29 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>9</v>
+      <c r="B37" s="0" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>1</v>
@@ -1777,18 +1804,18 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>1</v>
@@ -1797,18 +1824,18 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1</v>
@@ -1817,32 +1844,52 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="B43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1865,7 +1912,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1874,7 +1921,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.0510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1377551020408"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1901,7 +1948,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -1913,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>9</v>
@@ -1921,7 +1968,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -1933,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>9</v>
@@ -1941,7 +1988,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -1953,7 +2000,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>9</v>
@@ -1961,7 +2008,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -1973,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>9</v>
@@ -1981,7 +2028,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -1993,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>9</v>
@@ -2001,7 +2048,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -2013,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>9</v>
@@ -2021,7 +2068,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -2033,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>9</v>
@@ -2041,7 +2088,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -2053,7 +2100,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>9</v>
@@ -2061,7 +2108,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -2073,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>9</v>
@@ -2081,7 +2128,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>831.76</v>
@@ -2093,7 +2140,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>23</v>
@@ -2144,7 +2191,8 @@
         <v>26</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>5765.4</v>
+        <f aca="false">1.05*5765.4</f>
+        <v>6053.67</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -2164,7 +2212,8 @@
         <v>38</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>18610</v>
+        <f aca="false">1.05*18610</f>
+        <v>19540.5</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -2433,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
@@ -2450,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>23</v>
@@ -2470,10 +2519,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>29</v>
@@ -2490,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>51</v>
@@ -2510,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>64</v>
@@ -2535,12 +2584,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2549,42 +2598,42 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5510204081633"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.7040816326531"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -2596,26 +2645,21 @@
         <v>80.5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>25</v>
@@ -2627,21 +2671,21 @@
         <v>150</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>30</v>
@@ -2655,21 +2699,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>30</v>
@@ -2681,21 +2725,21 @@
         <v>4.7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>50</v>
@@ -2707,21 +2751,21 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>25</v>
@@ -2733,21 +2777,21 @@
         <v>150</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>30</v>
@@ -2761,21 +2805,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>24</v>
@@ -2787,21 +2831,21 @@
         <v>2.4</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -2813,21 +2857,21 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>8</v>
@@ -2839,21 +2883,21 @@
         <v>7.5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -2865,21 +2909,21 @@
         <v>3.5</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4</v>
@@ -2891,101 +2935,100 @@
         <v>3.5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C17" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>40</v>
@@ -2994,125 +3037,205 @@
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="C21" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D21" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>147</v>
+      <c r="E21" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E26" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="0" t="n">
+      <c r="H26" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C28" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>117</v>
+      <c r="E28" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3257,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3142,42 +3265,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.7040816326531"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3189,21 +3312,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3215,21 +3338,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3243,21 +3366,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3269,21 +3392,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -3295,21 +3418,21 @@
         <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3321,21 +3444,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3349,21 +3472,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3375,21 +3498,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -3401,21 +3524,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -3428,21 +3551,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3454,21 +3577,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -3480,21 +3603,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -3506,21 +3629,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -3532,21 +3655,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -3560,21 +3683,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -3586,21 +3709,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -3612,21 +3735,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -3640,21 +3763,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -3666,21 +3789,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -3692,21 +3815,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -3718,21 +3841,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -3745,21 +3868,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -3771,21 +3894,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>36</v>
@@ -3797,21 +3920,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -3823,21 +3946,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -3850,21 +3973,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -3876,21 +3999,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -3902,21 +4025,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -3930,21 +4053,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -3956,21 +4079,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -3982,21 +4105,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -4008,21 +4131,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -4035,21 +4158,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4061,16 +4184,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4100,42 +4223,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.7040816326531"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4147,21 +4270,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4173,21 +4296,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4201,21 +4324,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4227,21 +4350,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -4253,21 +4376,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4279,21 +4402,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4307,21 +4430,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4333,21 +4456,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4359,21 +4482,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4386,21 +4509,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4412,21 +4535,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -4438,21 +4561,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4464,21 +4587,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -4490,21 +4613,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4518,21 +4641,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4544,21 +4667,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -4570,21 +4693,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -4598,21 +4721,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -4624,21 +4747,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -4650,21 +4773,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -4676,21 +4799,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -4703,21 +4826,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4729,21 +4852,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -4755,21 +4878,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -4781,21 +4904,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -4808,21 +4931,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4834,21 +4957,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -4860,21 +4983,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -4888,21 +5011,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -4914,21 +5037,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -4940,21 +5063,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -4966,21 +5089,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -4993,21 +5116,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5019,16 +5142,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5058,42 +5181,42 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.7040816326531"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -5105,21 +5228,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -5131,21 +5254,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -5159,21 +5282,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -5185,21 +5308,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -5211,21 +5334,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -5237,21 +5360,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -5265,21 +5388,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -5291,21 +5414,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5317,21 +5440,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5344,21 +5467,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5370,21 +5493,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -5396,21 +5519,21 @@
         <v>200</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5422,21 +5545,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5448,21 +5571,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5476,21 +5599,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5502,21 +5625,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5528,21 +5651,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5556,21 +5679,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5582,21 +5705,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5608,21 +5731,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5634,21 +5757,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5661,21 +5784,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5687,21 +5810,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5713,21 +5836,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5739,21 +5862,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5766,21 +5889,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5792,21 +5915,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5818,21 +5941,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5846,21 +5969,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5872,21 +5995,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5898,21 +6021,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5924,21 +6047,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5951,21 +6074,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5977,16 +6100,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="296">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -252,103 +252,112 @@
     <t xml:space="preserve">$\sf \bar{t}$ (tW)</t>
   </si>
   <si>
+    <t xml:space="preserve">bprime_t-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3451a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\sf B’\rightarrow Xb$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bprime_bb_semilep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#b9516c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\sf B’B’\rightarrow XbXb$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fcnc_s-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ed418d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\sf t\rightarrow hc$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fcnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fcnc_tt_semilep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#67c8d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\sf t\bar{t}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ef5356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z+jets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#aab58d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diboson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#f1ca2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016E)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016G)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electron_2016B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electron_2016C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electron_2016D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ttjets</t>
+  </si>
+  <si>
     <t xml:space="preserve">bprime_xb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#3451a1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\sf B’\rightarrow Xb$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bprime_xbxb_semilep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#b9516c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\sf B’B’\rightarrow XbXb$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fcnc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ed418d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\sf t\rightarrow hc$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#67c8d8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\sf t\bar{t}$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ef5356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z+jets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#aab58d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diboson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#f1ca2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muon_2016B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data (2016B)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muon_2016C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data (2016C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muon_2016D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data (2016D)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muon_2016E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data (2016E)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muon_2016F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data (2016F)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muon_2016G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data (2016G)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electron_2016B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electron_2016C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electron_2016D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ttjets</t>
   </si>
   <si>
     <t xml:space="preserve">variable_name</t>
@@ -1074,12 +1083,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B24" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1418,7 +1427,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>11050</v>
+        <v>11050.1</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -1438,7 +1447,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>859</v>
+        <v>859.1</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -1738,7 +1747,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.053</v>
+        <v>0.045</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -1778,10 +1787,11 @@
         <v>81</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.084</v>
+        <f aca="false">B28+B29</f>
+        <v>4.939</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>82</v>
@@ -1790,32 +1800,32 @@
         <v>83</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>107.66</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>1</v>
@@ -1824,18 +1834,18 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1</v>
@@ -1850,12 +1860,12 @@
         <v>88</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>1</v>
@@ -1870,12 +1880,12 @@
         <v>90</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>1</v>
@@ -1887,9 +1897,29 @@
         <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="B44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1948,7 +1978,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -1960,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>9</v>
@@ -1968,7 +1998,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -1980,7 +2010,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>9</v>
@@ -1988,7 +2018,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -2000,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>9</v>
@@ -2008,7 +2038,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -2020,7 +2050,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>9</v>
@@ -2028,7 +2058,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -2040,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>9</v>
@@ -2048,7 +2078,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -2060,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>9</v>
@@ -2068,7 +2098,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -2080,7 +2110,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>9</v>
@@ -2088,7 +2118,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -2100,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>9</v>
@@ -2108,7 +2138,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -2120,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>9</v>
@@ -2128,7 +2158,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>831.76</v>
@@ -2140,7 +2170,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>23</v>
@@ -2450,7 +2480,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.03</v>
@@ -2465,7 +2495,7 @@
         <v>77</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,7 +2512,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
@@ -2499,10 +2529,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>23</v>
@@ -2519,10 +2549,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>29</v>
@@ -2539,10 +2569,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>51</v>
@@ -2559,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>64</v>
@@ -2607,33 +2637,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -2645,21 +2675,21 @@
         <v>80.5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>25</v>
@@ -2671,21 +2701,21 @@
         <v>150</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>30</v>
@@ -2699,21 +2729,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>30</v>
@@ -2725,21 +2755,21 @@
         <v>4.7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>50</v>
@@ -2751,21 +2781,21 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>25</v>
@@ -2777,21 +2807,21 @@
         <v>150</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>30</v>
@@ -2805,21 +2835,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>24</v>
@@ -2831,21 +2861,21 @@
         <v>2.4</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -2857,21 +2887,21 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>8</v>
@@ -2883,21 +2913,21 @@
         <v>7.5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -2909,21 +2939,21 @@
         <v>3.5</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4</v>
@@ -2935,21 +2965,21 @@
         <v>3.5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -2961,21 +2991,21 @@
         <v>3</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -2988,21 +3018,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -3014,21 +3044,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>40</v>
@@ -3040,21 +3070,21 @@
         <v>1000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -3068,21 +3098,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>25</v>
@@ -3094,21 +3124,21 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>40</v>
@@ -3120,21 +3150,21 @@
         <v>250</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>25</v>
@@ -3146,21 +3176,21 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -3172,21 +3202,21 @@
         <v>150</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -3200,21 +3230,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="H26" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>5</v>
@@ -3226,16 +3256,16 @@
         <v>4.5</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3274,33 +3304,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3312,21 +3342,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3338,21 +3368,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3366,21 +3396,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3392,21 +3422,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -3418,21 +3448,21 @@
         <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3444,21 +3474,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3472,21 +3502,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3498,21 +3528,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -3524,21 +3554,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -3551,21 +3581,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3577,21 +3607,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -3603,21 +3633,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -3629,21 +3659,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -3655,21 +3685,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -3683,21 +3713,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -3709,21 +3739,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -3735,21 +3765,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -3763,21 +3793,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -3789,21 +3819,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -3815,21 +3845,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -3841,21 +3871,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -3868,21 +3898,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -3894,21 +3924,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>36</v>
@@ -3920,21 +3950,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -3946,21 +3976,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -3973,21 +4003,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -3999,21 +4029,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -4025,21 +4055,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -4053,21 +4083,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -4079,21 +4109,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -4105,21 +4135,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -4131,21 +4161,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -4158,21 +4188,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4184,16 +4214,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4232,33 +4262,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4270,21 +4300,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4296,21 +4326,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4324,21 +4354,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4350,21 +4380,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -4376,21 +4406,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4402,21 +4432,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4430,21 +4460,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4456,21 +4486,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4482,21 +4512,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4509,21 +4539,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4535,21 +4565,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -4561,21 +4591,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4587,21 +4617,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -4613,21 +4643,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4641,21 +4671,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4667,21 +4697,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -4693,21 +4723,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -4721,21 +4751,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -4747,21 +4777,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -4773,21 +4803,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -4799,21 +4829,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -4826,21 +4856,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4852,21 +4882,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -4878,21 +4908,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -4904,21 +4934,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -4931,21 +4961,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4957,21 +4987,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -4983,21 +5013,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5011,21 +5041,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5037,21 +5067,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5063,21 +5093,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5089,21 +5119,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5116,21 +5146,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5142,16 +5172,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5190,33 +5220,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -5228,21 +5258,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -5254,21 +5284,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -5282,21 +5312,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -5308,21 +5338,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -5334,21 +5364,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -5360,21 +5390,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -5388,21 +5418,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -5414,21 +5444,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5440,21 +5470,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5467,21 +5497,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5493,21 +5523,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -5519,21 +5549,21 @@
         <v>200</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5545,21 +5575,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5571,21 +5601,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5599,21 +5629,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5625,21 +5655,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5651,21 +5681,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5679,21 +5709,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5705,21 +5735,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5731,21 +5761,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5757,21 +5787,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5784,21 +5814,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5810,21 +5840,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5836,21 +5866,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5862,21 +5892,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5889,21 +5919,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5915,21 +5945,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5941,21 +5971,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5969,21 +5999,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5995,21 +6025,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -6021,21 +6051,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -6047,21 +6077,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -6074,21 +6104,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -6100,16 +6130,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="298">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t xml:space="preserve">lepton2_iso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_cos_theta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\cos (\theta)</t>
   </si>
   <si>
     <t xml:space="preserve">lepton_delta_eta</t>
@@ -1086,9 +1092,9 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B24" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1097,7 +1103,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3265306122449"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1747,7 +1753,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -1951,7 +1957,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3265306122449"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2631,7 +2637,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.7040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.0918367346939"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3284,10 +3290,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3298,7 +3304,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.7040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.0918367346939"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3545,13 +3551,13 @@
         <v>187</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>188</v>
@@ -3563,7 +3569,7 @@
         <v>176</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,8 +3583,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>3</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>190</v>
@@ -3604,7 +3609,8 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>5</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>192</v>
@@ -3624,19 +3630,19 @@
         <v>193</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>194</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>176</v>
@@ -3650,19 +3656,19 @@
         <v>195</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>196</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>176</v>
@@ -3679,16 +3685,16 @@
         <v>30</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>198</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>176</v>
@@ -3705,12 +3711,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
+        <v>-6</v>
       </c>
       <c r="D17" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>6</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>200</v>
@@ -3733,10 +3737,12 @@
         <v>30</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>202</v>
@@ -3751,55 +3757,53 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="B19" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>139</v>
+      <c r="F19" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>139</v>
@@ -3810,13 +3814,15 @@
         <v>208</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-2.4</v>
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2.4</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>209</v>
@@ -3825,7 +3831,7 @@
         <v>131</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>139</v>
@@ -3836,22 +3842,22 @@
         <v>210</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>10</v>
+        <v>-2.4</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>300</v>
+        <v>2.4</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>211</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>139</v>
@@ -3862,22 +3868,22 @@
         <v>212</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>213</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>139</v>
@@ -3894,8 +3900,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>3</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>215</v>
@@ -3904,7 +3909,7 @@
         <v>131</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>139</v>
@@ -3921,7 +3926,8 @@
         <v>0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>7</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>217</v>
@@ -3930,36 +3936,36 @@
         <v>131</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="B27" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>152</v>
+      <c r="F27" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,22 +3973,22 @@
         <v>220</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>221</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>152</v>
@@ -3999,8 +4005,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>3</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>223</v>
@@ -4009,7 +4014,7 @@
         <v>131</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>152</v>
@@ -4026,7 +4031,8 @@
         <v>0</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>7</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>225</v>
@@ -4035,64 +4041,62 @@
         <v>131</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="B32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>228</v>
+      <c r="F32" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="F34" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" s="0" t="s">
         <v>230</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,13 +4104,15 @@
         <v>231</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>-2.4</v>
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>2.4</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>232</v>
@@ -4115,10 +4121,10 @@
         <v>131</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4126,25 +4132,25 @@
         <v>233</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>10</v>
+        <v>-2.4</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>300</v>
+        <v>2.4</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>234</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,25 +4158,25 @@
         <v>235</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>236</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,8 +4190,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>3</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>238</v>
@@ -4194,10 +4199,10 @@
         <v>131</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4211,7 +4216,8 @@
         <v>0</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>7</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>240</v>
@@ -4220,10 +4226,36 @@
         <v>131</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4256,7 +4288,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.7040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.0918367346939"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4300,7 +4332,7 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>126</v>
@@ -4406,7 +4438,7 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>126</v>
@@ -4500,7 +4532,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4512,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>131</v>
@@ -4526,7 +4558,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4539,7 +4571,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>131</v>
@@ -4553,7 +4585,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4565,7 +4597,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>131</v>
@@ -4579,7 +4611,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -4591,7 +4623,7 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>183</v>
@@ -4605,7 +4637,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4617,7 +4649,7 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>166</v>
@@ -4631,7 +4663,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -4643,7 +4675,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>131</v>
@@ -4657,7 +4689,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4671,7 +4703,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>131</v>
@@ -4685,7 +4717,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4697,7 +4729,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>131</v>
@@ -4711,7 +4743,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -4723,13 +4755,13 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>139</v>
@@ -4737,7 +4769,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -4751,13 +4783,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>139</v>
@@ -4765,7 +4797,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -4777,13 +4809,13 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>139</v>
@@ -4791,7 +4823,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -4803,13 +4835,13 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>139</v>
@@ -4817,7 +4849,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -4829,13 +4861,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>139</v>
@@ -4843,7 +4875,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -4856,13 +4888,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>139</v>
@@ -4870,7 +4902,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4882,13 +4914,13 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>139</v>
@@ -4896,7 +4928,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -4908,13 +4940,13 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>152</v>
@@ -4922,7 +4954,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -4934,13 +4966,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>152</v>
@@ -4948,7 +4980,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -4961,13 +4993,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>152</v>
@@ -4975,7 +5007,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4987,13 +5019,13 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>152</v>
@@ -5001,7 +5033,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5013,21 +5045,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5041,21 +5073,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5067,21 +5099,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5093,21 +5125,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5119,21 +5151,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5146,21 +5178,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5172,16 +5204,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5214,7 +5246,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.7040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.0918367346939"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5364,10 +5396,10 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>176</v>
@@ -5458,7 +5490,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5470,7 +5502,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>131</v>
@@ -5484,7 +5516,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5497,7 +5529,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>131</v>
@@ -5511,7 +5543,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5523,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>131</v>
@@ -5537,7 +5569,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -5549,7 +5581,7 @@
         <v>200</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>126</v>
@@ -5563,7 +5595,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5575,7 +5607,7 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>166</v>
@@ -5589,7 +5621,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5601,7 +5633,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>131</v>
@@ -5615,7 +5647,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5629,7 +5661,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>131</v>
@@ -5643,7 +5675,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5655,7 +5687,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>131</v>
@@ -5669,7 +5701,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5681,13 +5713,13 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>139</v>
@@ -5695,7 +5727,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5709,13 +5741,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>139</v>
@@ -5723,7 +5755,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5735,13 +5767,13 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>139</v>
@@ -5749,7 +5781,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5761,13 +5793,13 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>139</v>
@@ -5775,7 +5807,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5787,13 +5819,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>139</v>
@@ -5801,7 +5833,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5814,13 +5846,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>139</v>
@@ -5828,7 +5860,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5840,13 +5872,13 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>139</v>
@@ -5854,7 +5886,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5866,13 +5898,13 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>152</v>
@@ -5880,7 +5912,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5892,13 +5924,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>152</v>
@@ -5906,7 +5938,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5919,13 +5951,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>152</v>
@@ -5933,7 +5965,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5945,13 +5977,13 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>152</v>
@@ -5959,7 +5991,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5971,21 +6003,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5999,21 +6031,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -6025,21 +6057,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -6051,21 +6083,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -6077,21 +6109,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -6104,21 +6136,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -6130,16 +6162,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="300">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -588,10 +588,16 @@
     <t xml:space="preserve">lepton2_iso</t>
   </si>
   <si>
-    <t xml:space="preserve">lepton2_cos_theta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\cos (\theta)</t>
+    <t xml:space="preserve">lepton_plus_cos_theta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\cos (\theta_{\mu+})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton_minus_cos_theta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\cos (\theta_{\mu-})</t>
   </si>
   <si>
     <t xml:space="preserve">lepton_delta_eta</t>
@@ -1091,7 +1097,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
@@ -1103,7 +1109,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5255102040816"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1947,7 +1953,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1957,7 +1963,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.3265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5255102040816"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2187,10 +2193,11 @@
         <v>20</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>25.81</v>
+        <v>832</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <f aca="false">0.32*0.32</f>
+        <v>0.1024</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>21</v>
@@ -2207,10 +2214,11 @@
         <v>24</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>107.66</v>
+        <v>833</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
+        <f aca="false">0.32*0.68</f>
+        <v>0.2176</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>21</v>
@@ -2248,8 +2256,8 @@
         <v>38</v>
       </c>
       <c r="B16" s="0" t="n">
-        <f aca="false">1.05*18610</f>
-        <v>19540.5</v>
+        <f aca="false">1.18*0.5*18610</f>
+        <v>10979.9</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -2637,7 +2645,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3290,10 +3298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3304,7 +3312,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3577,13 +3585,13 @@
         <v>189</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>190</v>
@@ -3595,7 +3603,7 @@
         <v>176</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,8 +3617,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>192</v>
@@ -3636,7 +3643,8 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>194</v>
@@ -3656,19 +3664,19 @@
         <v>195</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>196</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>176</v>
@@ -3682,19 +3690,19 @@
         <v>197</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>198</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>176</v>
@@ -3711,16 +3719,16 @@
         <v>30</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>200</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>176</v>
@@ -3737,12 +3745,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
+        <v>-6</v>
       </c>
       <c r="D18" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>202</v>
@@ -3765,10 +3771,12 @@
         <v>30</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>5</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>204</v>
@@ -3783,55 +3791,53 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="B20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>139</v>
+      <c r="F20" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>139</v>
@@ -3842,13 +3848,15 @@
         <v>210</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-2.4</v>
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2.4</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>211</v>
@@ -3857,7 +3865,7 @@
         <v>131</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>139</v>
@@ -3868,22 +3876,22 @@
         <v>212</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>10</v>
+        <v>-2.4</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>300</v>
+        <v>2.4</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>213</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>139</v>
@@ -3894,22 +3902,22 @@
         <v>214</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>215</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>139</v>
@@ -3926,8 +3934,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>217</v>
@@ -3936,7 +3943,7 @@
         <v>131</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>139</v>
@@ -3953,7 +3960,8 @@
         <v>0</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>7</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>219</v>
@@ -3962,36 +3970,36 @@
         <v>131</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="B28" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>152</v>
+      <c r="F28" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,22 +4007,22 @@
         <v>222</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>223</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>152</v>
@@ -4031,8 +4039,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>225</v>
@@ -4041,7 +4048,7 @@
         <v>131</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>152</v>
@@ -4058,7 +4065,8 @@
         <v>0</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>7</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>227</v>
@@ -4067,64 +4075,62 @@
         <v>131</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="B33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>230</v>
+      <c r="F33" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="F35" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,13 +4138,15 @@
         <v>233</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>-2.4</v>
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>2.4</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>234</v>
@@ -4147,10 +4155,10 @@
         <v>131</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,25 +4166,25 @@
         <v>235</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>10</v>
+        <v>-2.4</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>300</v>
+        <v>2.4</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>236</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,25 +4192,25 @@
         <v>237</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>238</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,8 +4224,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
+        <v>3</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>240</v>
@@ -4226,10 +4233,10 @@
         <v>131</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,7 +4250,8 @@
         <v>0</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>7</v>
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>242</v>
@@ -4252,10 +4260,36 @@
         <v>131</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4288,7 +4322,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4332,7 +4366,7 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>126</v>
@@ -4438,7 +4472,7 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>126</v>
@@ -4532,7 +4566,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4544,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>131</v>
@@ -4558,7 +4592,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4571,7 +4605,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>131</v>
@@ -4585,7 +4619,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4597,7 +4631,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>131</v>
@@ -4611,7 +4645,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -4623,7 +4657,7 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>183</v>
@@ -4637,7 +4671,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4649,7 +4683,7 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>166</v>
@@ -4663,7 +4697,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -4675,7 +4709,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>131</v>
@@ -4689,7 +4723,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4703,7 +4737,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>131</v>
@@ -4717,7 +4751,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4729,7 +4763,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>131</v>
@@ -4743,7 +4777,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -4755,13 +4789,13 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>139</v>
@@ -4769,7 +4803,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -4783,13 +4817,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>139</v>
@@ -4797,7 +4831,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -4809,13 +4843,13 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>139</v>
@@ -4823,7 +4857,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -4835,13 +4869,13 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>139</v>
@@ -4849,7 +4883,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -4861,13 +4895,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>139</v>
@@ -4875,7 +4909,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -4888,13 +4922,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>139</v>
@@ -4902,7 +4936,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4914,13 +4948,13 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>139</v>
@@ -4928,7 +4962,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -4940,13 +4974,13 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>152</v>
@@ -4954,7 +4988,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -4966,13 +5000,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>152</v>
@@ -4980,7 +5014,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -4993,13 +5027,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>152</v>
@@ -5007,7 +5041,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5019,13 +5053,13 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>152</v>
@@ -5033,7 +5067,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5045,21 +5079,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5073,21 +5107,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5099,21 +5133,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5125,21 +5159,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5151,21 +5185,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5178,21 +5212,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5204,16 +5238,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5246,7 +5280,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5396,10 +5430,10 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>176</v>
@@ -5490,7 +5524,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5502,7 +5536,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>131</v>
@@ -5516,7 +5550,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5529,7 +5563,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>131</v>
@@ -5543,7 +5577,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5555,7 +5589,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>131</v>
@@ -5569,7 +5603,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -5581,7 +5615,7 @@
         <v>200</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>126</v>
@@ -5595,7 +5629,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5607,7 +5641,7 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>166</v>
@@ -5621,7 +5655,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5633,7 +5667,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>131</v>
@@ -5647,7 +5681,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5661,7 +5695,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>131</v>
@@ -5675,7 +5709,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5687,7 +5721,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>131</v>
@@ -5701,7 +5735,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5713,13 +5747,13 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>139</v>
@@ -5727,7 +5761,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5741,13 +5775,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>139</v>
@@ -5755,7 +5789,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5767,13 +5801,13 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>139</v>
@@ -5781,7 +5815,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5793,13 +5827,13 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>139</v>
@@ -5807,7 +5841,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5819,13 +5853,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>139</v>
@@ -5833,7 +5867,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5846,13 +5880,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>139</v>
@@ -5860,7 +5894,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5872,13 +5906,13 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>139</v>
@@ -5886,7 +5920,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5898,13 +5932,13 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>152</v>
@@ -5912,7 +5946,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5924,13 +5958,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>152</v>
@@ -5938,7 +5972,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5951,13 +5985,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>152</v>
@@ -5965,7 +5999,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5977,13 +6011,13 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>152</v>
@@ -5991,7 +6025,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -6003,21 +6037,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -6031,21 +6065,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -6057,21 +6091,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -6083,21 +6117,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>166</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -6109,21 +6143,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -6136,21 +6170,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -6162,16 +6196,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>131</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -621,13 +621,13 @@
     <t xml:space="preserve">dilepton_mass</t>
   </si>
   <si>
-    <t xml:space="preserve">M_{\mu, \mu} \, [GeV]</t>
+    <t xml:space="preserve">M_{\mu \mu} \, [GeV]</t>
   </si>
   <si>
     <t xml:space="preserve">dilepton_pt</t>
   </si>
   <si>
-    <t xml:space="preserve">p_{T}^{\mu, \mu} \, [GeV]</t>
+    <t xml:space="preserve">p_{T}^{\mu \mu} \, [GeV]</t>
   </si>
   <si>
     <t xml:space="preserve">dilepton_eta</t>
@@ -1098,9 +1098,9 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1109,7 +1109,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6275510204082"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1953,8 +1953,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1963,7 +1963,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6275510204082"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2645,7 +2645,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3300,8 +3300,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3312,7 +3312,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4322,7 +4322,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5280,7 +5280,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="302">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -387,7 +387,7 @@
     <t xml:space="preserve">n_pu</t>
   </si>
   <si>
-    <t xml:space="preserve">N_{pu}</t>
+    <t xml:space="preserve">N_{pileup}</t>
   </si>
   <si>
     <t xml:space="preserve">Entries\,/\, bin</t>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_pv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_{PV}</t>
   </si>
   <si>
     <t xml:space="preserve">jet_pt</t>
@@ -1100,7 +1106,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1109,7 +1115,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.8163265306122"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1951,10 +1957,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1963,7 +1969,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.8163265306122"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2214,7 +2220,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">0.32*0.68</f>
@@ -2274,341 +2280,501 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>57.25</v>
+        <v>1198.88</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>5.595</v>
+        <v>390.58</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>5.26</v>
+        <v>113.28</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3.22</v>
+        <v>60.18</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.564</v>
+        <v>855.5</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>10.306</v>
+        <v>466.1</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1.76</v>
+        <v>114.46</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>216.84</v>
+        <v>36.4</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>136</v>
+        <v>57.25</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>35.6</v>
+        <v>5.595</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>35.6</v>
+        <v>4.4</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>64</v>
+      <c r="E28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.564</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>10.306</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>216.84</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B37" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="0" t="s">
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E37" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F37" s="0" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="B41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="B43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2630,10 +2796,10 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2645,7 +2811,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.0459183673469"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2686,7 +2852,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>80.5</v>
+        <v>50.5</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>120</v>
@@ -2701,9 +2867,35 @@
         <v>123</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>25</v>
@@ -2715,21 +2907,21 @@
         <v>150</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>30</v>
@@ -2743,21 +2935,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>30</v>
@@ -2769,21 +2961,21 @@
         <v>4.7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>50</v>
@@ -2795,21 +2987,21 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>25</v>
@@ -2821,21 +3013,21 @@
         <v>150</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>30</v>
@@ -2849,21 +3041,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>24</v>
@@ -2875,21 +3067,21 @@
         <v>2.4</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>50</v>
@@ -2901,21 +3093,21 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>8</v>
@@ -2927,13 +3119,13 @@
         <v>7.5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>123</v>
@@ -2941,7 +3133,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -2953,13 +3145,13 @@
         <v>3.5</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>123</v>
@@ -2967,7 +3159,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4</v>
@@ -2979,13 +3171,13 @@
         <v>3.5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>123</v>
@@ -2993,7 +3185,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -3005,21 +3197,21 @@
         <v>3</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -3032,21 +3224,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -3058,21 +3250,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>40</v>
@@ -3084,21 +3276,21 @@
         <v>1000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -3112,21 +3304,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>25</v>
@@ -3138,21 +3330,21 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>40</v>
@@ -3164,21 +3356,21 @@
         <v>250</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>25</v>
@@ -3190,21 +3382,21 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -3216,13 +3408,13 @@
         <v>150</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>123</v>
@@ -3230,7 +3422,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -3244,13 +3436,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>123</v>
@@ -3258,7 +3450,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>5</v>
@@ -3270,10 +3462,10 @@
         <v>4.5</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>122</v>
@@ -3300,7 +3492,7 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3312,7 +3504,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.0459183673469"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3344,7 +3536,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3356,13 +3548,13 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>123</v>
@@ -3370,7 +3562,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3382,13 +3574,13 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>123</v>
@@ -3396,7 +3588,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3410,13 +3602,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>123</v>
@@ -3424,7 +3616,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3436,13 +3628,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>123</v>
@@ -3450,7 +3642,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -3462,13 +3654,13 @@
         <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>123</v>
@@ -3476,7 +3668,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3488,13 +3680,13 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>123</v>
@@ -3502,7 +3694,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3516,13 +3708,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>123</v>
@@ -3530,7 +3722,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3542,13 +3734,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>123</v>
@@ -3556,7 +3748,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>25</v>
@@ -3568,21 +3760,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>25</v>
@@ -3594,21 +3786,21 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3620,13 +3812,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>123</v>
@@ -3634,7 +3826,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -3647,13 +3839,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>123</v>
@@ -3661,7 +3853,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -3673,13 +3865,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>123</v>
@@ -3687,7 +3879,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>29</v>
@@ -3699,13 +3891,13 @@
         <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>123</v>
@@ -3713,7 +3905,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -3725,13 +3917,13 @@
         <v>250</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>123</v>
@@ -3739,7 +3931,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -3751,13 +3943,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>123</v>
@@ -3765,7 +3957,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>30</v>
@@ -3779,13 +3971,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>123</v>
@@ -3793,7 +3985,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -3805,13 +3997,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>123</v>
@@ -3819,7 +4011,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>45</v>
@@ -3831,21 +4023,21 @@
         <v>500</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -3859,21 +4051,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>209</v>
-      </c>
       <c r="H23" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>24</v>
@@ -3885,21 +4077,21 @@
         <v>2.4</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>29</v>
@@ -3911,21 +4103,21 @@
         <v>300</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -3937,21 +4129,21 @@
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>30</v>
@@ -3964,21 +4156,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -3990,21 +4182,21 @@
         <v>7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>36</v>
@@ -4016,21 +4208,21 @@
         <v>1000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4042,21 +4234,21 @@
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>30</v>
@@ -4069,21 +4261,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>30</v>
@@ -4095,21 +4287,21 @@
         <v>7</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>25</v>
@@ -4121,21 +4313,21 @@
         <v>550</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>30</v>
@@ -4149,21 +4341,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>24</v>
@@ -4175,21 +4367,21 @@
         <v>2.4</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>29</v>
@@ -4201,21 +4393,21 @@
         <v>300</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4227,21 +4419,21 @@
         <v>3</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>30</v>
@@ -4254,21 +4446,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>30</v>
@@ -4280,16 +4472,16 @@
         <v>7</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4514,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.0459183673469"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4354,7 +4546,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4366,13 +4558,13 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>123</v>
@@ -4380,7 +4572,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4392,13 +4584,13 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>123</v>
@@ -4406,7 +4598,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4420,13 +4612,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>123</v>
@@ -4434,7 +4626,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4446,13 +4638,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>123</v>
@@ -4460,7 +4652,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -4472,13 +4664,13 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>123</v>
@@ -4486,7 +4678,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4498,13 +4690,13 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>123</v>
@@ -4512,7 +4704,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4526,13 +4718,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>123</v>
@@ -4540,7 +4732,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4552,13 +4744,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>123</v>
@@ -4566,7 +4758,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4578,13 +4770,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>123</v>
@@ -4592,7 +4784,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4605,13 +4797,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>123</v>
@@ -4619,7 +4811,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4631,13 +4823,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>123</v>
@@ -4645,7 +4837,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -4657,13 +4849,13 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>123</v>
@@ -4671,7 +4863,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4683,13 +4875,13 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>123</v>
@@ -4697,7 +4889,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -4709,13 +4901,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>123</v>
@@ -4723,7 +4915,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4737,13 +4929,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>123</v>
@@ -4751,7 +4943,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4763,13 +4955,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>123</v>
@@ -4777,7 +4969,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -4789,21 +4981,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -4817,21 +5009,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -4843,21 +5035,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -4869,21 +5061,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -4895,21 +5087,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -4922,21 +5114,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4948,21 +5140,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -4974,21 +5166,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5000,21 +5192,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5027,21 +5219,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5053,21 +5245,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5079,21 +5271,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5107,21 +5299,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5133,21 +5325,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5159,21 +5351,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5185,21 +5377,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5212,21 +5404,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5238,16 +5430,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5280,7 +5472,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.0459183673469"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5312,7 +5504,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -5324,13 +5516,13 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>123</v>
@@ -5338,7 +5530,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -5350,13 +5542,13 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>123</v>
@@ -5364,7 +5556,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -5378,13 +5570,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>123</v>
@@ -5392,7 +5584,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -5404,13 +5596,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>123</v>
@@ -5418,7 +5610,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -5430,13 +5622,13 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>123</v>
@@ -5444,7 +5636,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -5456,13 +5648,13 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>123</v>
@@ -5470,7 +5662,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -5484,13 +5676,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>123</v>
@@ -5498,7 +5690,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -5510,13 +5702,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>123</v>
@@ -5524,7 +5716,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5536,13 +5728,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>123</v>
@@ -5550,7 +5742,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5563,13 +5755,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>123</v>
@@ -5577,7 +5769,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5589,13 +5781,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>123</v>
@@ -5603,7 +5795,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -5615,13 +5807,13 @@
         <v>200</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>123</v>
@@ -5629,7 +5821,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5641,13 +5833,13 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>123</v>
@@ -5655,7 +5847,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5667,13 +5859,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>123</v>
@@ -5681,7 +5873,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5695,13 +5887,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>123</v>
@@ -5709,7 +5901,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5721,13 +5913,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>123</v>
@@ -5735,7 +5927,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5747,21 +5939,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5775,21 +5967,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5801,21 +5993,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5827,21 +6019,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5853,21 +6045,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5880,21 +6072,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5906,21 +6098,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5932,21 +6124,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5958,21 +6150,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5985,21 +6177,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -6011,21 +6203,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -6037,21 +6229,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -6065,21 +6257,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -6091,21 +6283,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -6117,21 +6309,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -6143,21 +6335,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -6170,21 +6362,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -6196,16 +6388,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="306">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -387,7 +387,7 @@
     <t xml:space="preserve">n_pu</t>
   </si>
   <si>
-    <t xml:space="preserve">N_{pu}</t>
+    <t xml:space="preserve">N_{pileup}</t>
   </si>
   <si>
     <t xml:space="preserve">Entries\,/\, bin</t>
@@ -397,6 +397,24 @@
   </si>
   <si>
     <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_pv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_{PV}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_muons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_{muons}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_electrons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_{electrons}</t>
   </si>
   <si>
     <t xml:space="preserve">jet_pt</t>
@@ -1100,7 +1118,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1109,7 +1127,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.9030612244898"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1951,10 +1969,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1963,7 +1981,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.9030612244898"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2214,7 +2232,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">0.32*0.68</f>
@@ -2274,341 +2292,501 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>57.25</v>
+        <v>1198.88</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>5.595</v>
+        <v>390.58</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>5.26</v>
+        <v>113.28</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3.22</v>
+        <v>60.18</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.564</v>
+        <v>855.5</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>10.306</v>
+        <v>466.1</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1.76</v>
+        <v>114.46</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>216.84</v>
+        <v>36.4</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>136</v>
+        <v>57.25</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>35.6</v>
+        <v>5.595</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>35.6</v>
+        <v>4.4</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>64</v>
+      <c r="E28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.564</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>10.306</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>216.84</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B37" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="0" t="s">
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E37" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F37" s="0" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="B41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="B43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2628,12 +2806,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2645,7 +2823,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.2448979591837"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2686,7 +2864,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>80.5</v>
+        <v>50.5</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>120</v>
@@ -2701,268 +2879,268 @@
         <v>123</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>25</v>
+        <v>-0.5</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>150</v>
+        <v>5.5</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="F6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="E9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B11" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="E13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-0.5</v>
+        <v>-2.4</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,25 +3148,25 @@
         <v>148</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>149</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,163 +3174,161 @@
         <v>150</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>151</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="F17" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C20" s="0" t="n">
-        <f aca="false">-PI()</f>
-        <v>-3.14159265358979</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>40</v>
@@ -3161,124 +3337,204 @@
         <v>0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="G22" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">-PI()</f>
+        <v>-3.14159265358979</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="F23" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="C24" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>152</v>
+      <c r="E24" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="0" t="s">
+      <c r="E29" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="0" t="n">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C31" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="0" t="s">
+      <c r="E31" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H31" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3300,7 +3556,7 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3312,7 +3568,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.2448979591837"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3344,7 +3600,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3356,13 +3612,13 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>123</v>
@@ -3370,7 +3626,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3382,13 +3638,13 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>123</v>
@@ -3396,7 +3652,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3410,13 +3666,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>123</v>
@@ -3424,7 +3680,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3436,13 +3692,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>123</v>
@@ -3450,7 +3706,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -3462,13 +3718,13 @@
         <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>123</v>
@@ -3476,7 +3732,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3488,13 +3744,13 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>123</v>
@@ -3502,7 +3758,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3516,13 +3772,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>123</v>
@@ -3530,7 +3786,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3542,13 +3798,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>123</v>
@@ -3556,7 +3812,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>25</v>
@@ -3568,21 +3824,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>25</v>
@@ -3594,21 +3850,21 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3620,13 +3876,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>123</v>
@@ -3634,7 +3890,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -3647,13 +3903,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>123</v>
@@ -3661,7 +3917,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -3673,13 +3929,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>123</v>
@@ -3687,7 +3943,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>29</v>
@@ -3699,13 +3955,13 @@
         <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>123</v>
@@ -3713,7 +3969,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -3725,13 +3981,13 @@
         <v>250</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>123</v>
@@ -3739,7 +3995,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -3751,13 +4007,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>123</v>
@@ -3765,7 +4021,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>30</v>
@@ -3779,13 +4035,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>123</v>
@@ -3793,7 +4049,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -3805,13 +4061,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>123</v>
@@ -3819,7 +4075,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>45</v>
@@ -3831,21 +4087,21 @@
         <v>500</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -3859,21 +4115,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>24</v>
@@ -3885,21 +4141,21 @@
         <v>2.4</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>29</v>
@@ -3911,21 +4167,21 @@
         <v>300</v>
       </c>
       <c r="E25" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>209</v>
-      </c>
       <c r="H25" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -3937,21 +4193,21 @@
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>30</v>
@@ -3964,21 +4220,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -3990,21 +4246,21 @@
         <v>7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>36</v>
@@ -4016,21 +4272,21 @@
         <v>1000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4042,21 +4298,21 @@
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>30</v>
@@ -4069,21 +4325,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>30</v>
@@ -4095,21 +4351,21 @@
         <v>7</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>25</v>
@@ -4121,21 +4377,21 @@
         <v>550</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>30</v>
@@ -4149,21 +4405,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>24</v>
@@ -4175,21 +4431,21 @@
         <v>2.4</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>29</v>
@@ -4201,21 +4457,21 @@
         <v>300</v>
       </c>
       <c r="E38" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4227,21 +4483,21 @@
         <v>3</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>30</v>
@@ -4254,21 +4510,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>30</v>
@@ -4280,16 +4536,16 @@
         <v>7</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4578,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.2448979591837"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4354,7 +4610,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4366,13 +4622,13 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>123</v>
@@ -4380,7 +4636,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4392,13 +4648,13 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>123</v>
@@ -4406,7 +4662,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4420,13 +4676,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>123</v>
@@ -4434,7 +4690,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4446,13 +4702,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>123</v>
@@ -4460,7 +4716,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -4472,13 +4728,13 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>123</v>
@@ -4486,7 +4742,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4498,13 +4754,13 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>123</v>
@@ -4512,7 +4768,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4526,13 +4782,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>123</v>
@@ -4540,7 +4796,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4552,13 +4808,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>123</v>
@@ -4566,7 +4822,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4578,13 +4834,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>123</v>
@@ -4592,7 +4848,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4605,13 +4861,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>123</v>
@@ -4619,7 +4875,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4631,13 +4887,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>123</v>
@@ -4645,7 +4901,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -4657,13 +4913,13 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>123</v>
@@ -4671,7 +4927,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4683,13 +4939,13 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>123</v>
@@ -4697,7 +4953,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -4709,13 +4965,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>123</v>
@@ -4723,7 +4979,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4737,13 +4993,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>123</v>
@@ -4751,7 +5007,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4763,13 +5019,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>123</v>
@@ -4777,7 +5033,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -4789,21 +5045,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -4817,21 +5073,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -4843,21 +5099,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -4869,21 +5125,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -4895,21 +5151,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -4922,21 +5178,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4948,21 +5204,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -4974,21 +5230,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5000,21 +5256,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5027,21 +5283,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5053,21 +5309,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5079,21 +5335,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5107,21 +5363,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5133,21 +5389,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5159,21 +5415,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5185,21 +5441,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5212,21 +5468,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5238,16 +5494,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5280,7 +5536,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.2448979591837"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5312,7 +5568,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -5324,13 +5580,13 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>123</v>
@@ -5338,7 +5594,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -5350,13 +5606,13 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>123</v>
@@ -5364,7 +5620,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -5378,13 +5634,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>123</v>
@@ -5392,7 +5648,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -5404,13 +5660,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>123</v>
@@ -5418,7 +5674,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -5430,13 +5686,13 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>123</v>
@@ -5444,7 +5700,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -5456,13 +5712,13 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>123</v>
@@ -5470,7 +5726,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -5484,13 +5740,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>123</v>
@@ -5498,7 +5754,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -5510,13 +5766,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>123</v>
@@ -5524,7 +5780,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5536,13 +5792,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>123</v>
@@ -5550,7 +5806,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5563,13 +5819,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>123</v>
@@ -5577,7 +5833,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5589,13 +5845,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>123</v>
@@ -5603,7 +5859,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -5615,13 +5871,13 @@
         <v>200</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>123</v>
@@ -5629,7 +5885,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5641,13 +5897,13 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>123</v>
@@ -5655,7 +5911,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5667,13 +5923,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>123</v>
@@ -5681,7 +5937,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5695,13 +5951,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>123</v>
@@ -5709,7 +5965,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5721,13 +5977,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>123</v>
@@ -5735,7 +5991,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5747,21 +6003,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5775,21 +6031,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5801,21 +6057,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5827,21 +6083,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5853,21 +6109,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5880,21 +6136,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5906,21 +6162,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5932,21 +6188,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5958,21 +6214,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5985,21 +6241,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -6011,21 +6267,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -6037,21 +6293,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -6065,21 +6321,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -6091,21 +6347,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -6117,21 +6373,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -6143,21 +6399,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -6170,21 +6426,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -6196,16 +6452,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="308">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t xml:space="preserve">Data (2016G)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_2016H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (2016H)</t>
   </si>
   <si>
     <t xml:space="preserve">electron_2016B</t>
@@ -1118,7 +1124,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1127,7 +1133,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.9030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.1989795918367"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1969,19 +1975,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6428571428571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.9030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.1989795918367"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2140,7 +2146,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>9</v>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -2160,7 +2166,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>9</v>
@@ -2168,7 +2174,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -2180,48 +2186,47 @@
         <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>831.76</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>23</v>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>832</v>
+        <v>831.76</v>
       </c>
       <c r="C13" s="0" t="n">
-        <f aca="false">0.32*0.32</f>
-        <v>0.1024</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>23</v>
@@ -2229,53 +2234,53 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>832</v>
       </c>
       <c r="C14" s="0" t="n">
+        <f aca="false">0.32*0.32*(1.3/0.5)</f>
+        <v>0.26624</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>832</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <f aca="false">0.32*0.68</f>
         <v>0.2176</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <f aca="false">1.05*5765.4</f>
-        <v>6053.67</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="n">
-        <f aca="false">1.18*0.5*18610</f>
-        <v>10979.9</v>
+        <f aca="false">1.18*5765.4</f>
+        <v>6803.172</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -2284,7 +2289,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>29</v>
@@ -2292,10 +2297,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1198.88</v>
+        <f aca="false">1.18*18610</f>
+        <v>21959.8</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -2304,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>29</v>
@@ -2312,10 +2318,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>390.58</v>
+        <f aca="false">1.18*1016</f>
+        <v>1198.88</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -2324,7 +2331,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>29</v>
@@ -2332,10 +2339,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>113.28</v>
+        <f aca="false">1.18*331</f>
+        <v>390.58</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -2344,7 +2352,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>29</v>
@@ -2352,10 +2360,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>60.18</v>
+        <v>113.28</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -2364,7 +2372,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>29</v>
@@ -2372,10 +2380,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>855.5</v>
+        <v>60.18</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -2384,7 +2392,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>29</v>
@@ -2392,10 +2400,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>466.1</v>
+        <f aca="false">1.18*725</f>
+        <v>855.5</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -2404,7 +2413,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>29</v>
@@ -2412,10 +2421,11 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>114.46</v>
+        <f aca="false">1.18*395</f>
+        <v>466.1</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -2424,7 +2434,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>29</v>
@@ -2432,10 +2442,11 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>36.4</v>
+        <f aca="false">1.18*97</f>
+        <v>114.46</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -2444,7 +2455,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>29</v>
@@ -2452,39 +2463,39 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>57.25</v>
+        <v>36.4</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>5.595</v>
+        <v>57.25</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>51</v>
@@ -2492,10 +2503,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>4.4</v>
+        <v>5.595</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -2504,7 +2515,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>51</v>
@@ -2512,19 +2523,19 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3.22</v>
+        <v>4.4</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>51</v>
@@ -2532,10 +2543,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.564</v>
+        <v>3.22</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -2544,7 +2555,7 @@
         <v>58</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>51</v>
@@ -2552,10 +2563,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>10.306</v>
+        <v>0.564</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -2564,18 +2575,18 @@
         <v>58</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1.76</v>
+        <v>10.306</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -2584,7 +2595,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>64</v>
@@ -2592,10 +2603,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>216.84</v>
+        <v>1.76</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -2604,7 +2615,7 @@
         <v>58</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>64</v>
@@ -2612,10 +2623,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>136</v>
+        <v>216.84</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -2624,7 +2635,7 @@
         <v>58</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>64</v>
@@ -2632,10 +2643,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>35.6</v>
+        <v>136</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -2644,7 +2655,7 @@
         <v>58</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>64</v>
@@ -2652,7 +2663,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>35.6</v>
@@ -2664,129 +2675,209 @@
         <v>58</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E38" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>110</v>
+      <c r="F38" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>9</v>
+      <c r="A39" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>23</v>
+      <c r="A40" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>4.939</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>51</v>
+      <c r="A41" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>107.66</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="B47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2808,7 +2899,7 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
@@ -2823,39 +2914,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.2448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8214285714286"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -2867,21 +2958,21 @@
         <v>50.5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>50</v>
@@ -2893,21 +2984,21 @@
         <v>50.5</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
@@ -2919,21 +3010,21 @@
         <v>5.5</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
@@ -2945,21 +3036,21 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>25</v>
@@ -2971,21 +3062,21 @@
         <v>150</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -2999,21 +3090,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>30</v>
@@ -3025,21 +3116,21 @@
         <v>4.7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>50</v>
@@ -3051,21 +3142,21 @@
         <v>0.2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>25</v>
@@ -3077,21 +3168,21 @@
         <v>150</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3105,21 +3196,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>24</v>
@@ -3131,21 +3222,21 @@
         <v>2.4</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>50</v>
@@ -3157,21 +3248,21 @@
         <v>0.2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>8</v>
@@ -3183,21 +3274,21 @@
         <v>7.5</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4</v>
@@ -3209,21 +3300,21 @@
         <v>3.5</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -3235,21 +3326,21 @@
         <v>3.5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>30</v>
@@ -3261,21 +3352,21 @@
         <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -3288,21 +3379,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -3314,21 +3405,21 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>40</v>
@@ -3340,21 +3431,21 @@
         <v>1000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -3368,21 +3459,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>25</v>
@@ -3394,21 +3485,21 @@
         <v>5</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>40</v>
@@ -3420,21 +3511,21 @@
         <v>250</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>25</v>
@@ -3446,21 +3537,21 @@
         <v>5</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -3472,21 +3563,21 @@
         <v>150</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -3500,21 +3591,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>5</v>
@@ -3526,16 +3617,16 @@
         <v>4.5</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3568,39 +3659,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.2448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8214285714286"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3612,21 +3703,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3638,21 +3729,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3666,21 +3757,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3692,21 +3783,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -3718,21 +3809,21 @@
         <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3744,21 +3835,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3772,21 +3863,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3798,21 +3889,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>25</v>
@@ -3824,21 +3915,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>25</v>
@@ -3850,21 +3941,21 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3876,21 +3967,21 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -3903,21 +3994,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -3929,21 +4020,21 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>29</v>
@@ -3955,21 +4046,21 @@
         <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -3981,21 +4072,21 @@
         <v>250</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4007,21 +4098,21 @@
         <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>30</v>
@@ -4035,21 +4126,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -4061,21 +4152,21 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>45</v>
@@ -4087,21 +4178,21 @@
         <v>500</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -4115,21 +4206,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>215</v>
-      </c>
       <c r="H23" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>24</v>
@@ -4141,21 +4232,21 @@
         <v>2.4</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>29</v>
@@ -4167,21 +4258,21 @@
         <v>300</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4193,21 +4284,21 @@
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>30</v>
@@ -4220,21 +4311,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -4246,21 +4337,21 @@
         <v>7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>36</v>
@@ -4272,21 +4363,21 @@
         <v>1000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4298,21 +4389,21 @@
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>30</v>
@@ -4325,21 +4416,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>30</v>
@@ -4351,21 +4442,21 @@
         <v>7</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>25</v>
@@ -4377,21 +4468,21 @@
         <v>550</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>30</v>
@@ -4405,21 +4496,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>24</v>
@@ -4431,21 +4522,21 @@
         <v>2.4</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>29</v>
@@ -4457,21 +4548,21 @@
         <v>300</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4483,21 +4574,21 @@
         <v>3</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>30</v>
@@ -4510,21 +4601,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>30</v>
@@ -4536,16 +4627,16 @@
         <v>7</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4578,39 +4669,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.2448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8214285714286"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4622,21 +4713,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4648,21 +4739,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4676,21 +4767,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4702,21 +4793,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -4728,21 +4819,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4754,21 +4845,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4782,21 +4873,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4808,21 +4899,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4834,21 +4925,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4861,21 +4952,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4887,21 +4978,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -4913,21 +5004,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4939,21 +5030,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -4965,21 +5056,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4993,21 +5084,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5019,21 +5110,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5045,21 +5136,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5073,21 +5164,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5099,21 +5190,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5125,21 +5216,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5151,21 +5242,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5178,21 +5269,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5204,21 +5295,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5230,21 +5321,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5256,21 +5347,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5283,21 +5374,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5309,21 +5400,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5335,21 +5426,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5363,21 +5454,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5389,21 +5480,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5415,21 +5506,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5441,21 +5532,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5468,21 +5559,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5494,16 +5585,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5525,7 +5616,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5536,39 +5627,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.2448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8214285714286"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -5580,21 +5671,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -5606,21 +5697,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -5634,21 +5725,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -5660,21 +5751,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -5686,21 +5777,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -5712,21 +5803,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -5740,21 +5831,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -5766,21 +5857,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5792,21 +5883,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5819,21 +5910,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5845,47 +5936,47 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5897,21 +5988,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5923,21 +6014,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5951,21 +6042,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5977,21 +6068,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -6003,21 +6094,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -6031,21 +6122,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -6057,21 +6148,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -6083,21 +6174,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -6109,21 +6200,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -6136,21 +6227,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -6162,21 +6253,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -6188,21 +6279,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -6214,21 +6305,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -6241,21 +6332,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -6267,21 +6358,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -6293,21 +6384,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -6321,21 +6412,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -6347,21 +6438,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -6373,21 +6464,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -6399,21 +6490,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -6426,21 +6517,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -6452,16 +6543,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="311">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -364,6 +364,15 @@
   </si>
   <si>
     <t xml:space="preserve">bprime_xb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (ICHEP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data (post-ICHEP)</t>
   </si>
   <si>
     <t xml:space="preserve">variable_name</t>
@@ -1124,7 +1133,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1133,8 +1142,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.1989795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6020408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -1783,7 +1792,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -1975,20 +1984,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6479591836735"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.1989795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2704081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2240,8 +2249,8 @@
         <v>832</v>
       </c>
       <c r="C14" s="0" t="n">
-        <f aca="false">0.32*0.32*(1.3/0.5)</f>
-        <v>0.26624</v>
+        <f aca="false">0.32*0.32*(1.23/0.5)</f>
+        <v>0.251904</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>21</v>
@@ -2626,7 +2635,7 @@
         <v>67</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>216.84</v>
+        <v>69.4</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -2795,7 +2804,7 @@
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>9</v>
@@ -2803,7 +2812,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>1</v>
@@ -2812,18 +2821,18 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>1</v>
@@ -2832,18 +2841,18 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>1</v>
@@ -2852,32 +2861,52 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="B48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2899,10 +2928,10 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2914,39 +2943,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8214285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.5867346938776"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -2958,21 +2987,21 @@
         <v>50.5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>50</v>
@@ -2984,21 +3013,21 @@
         <v>50.5</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
@@ -3007,24 +3036,24 @@
         <v>-0.5</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
@@ -3036,21 +3065,21 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>25</v>
@@ -3062,21 +3091,21 @@
         <v>150</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3090,21 +3119,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>30</v>
@@ -3116,21 +3145,21 @@
         <v>4.7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>50</v>
@@ -3142,21 +3171,21 @@
         <v>0.2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>25</v>
@@ -3168,21 +3197,21 @@
         <v>150</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3196,21 +3225,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>24</v>
@@ -3222,21 +3251,21 @@
         <v>2.4</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>50</v>
@@ -3248,21 +3277,21 @@
         <v>0.2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>8</v>
@@ -3274,21 +3303,21 @@
         <v>7.5</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4</v>
@@ -3300,21 +3329,21 @@
         <v>3.5</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -3326,21 +3355,21 @@
         <v>3.5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>30</v>
@@ -3352,21 +3381,21 @@
         <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -3379,21 +3408,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -3405,21 +3434,21 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>40</v>
@@ -3431,21 +3460,21 @@
         <v>1000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -3459,21 +3488,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>25</v>
@@ -3485,21 +3514,21 @@
         <v>5</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>40</v>
@@ -3511,21 +3540,21 @@
         <v>250</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>25</v>
@@ -3537,21 +3566,21 @@
         <v>5</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -3563,21 +3592,21 @@
         <v>150</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -3591,21 +3620,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>5</v>
@@ -3617,16 +3646,16 @@
         <v>4.5</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3659,39 +3688,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8214285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.5867346938776"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3703,21 +3732,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3729,21 +3758,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3757,21 +3786,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3783,21 +3812,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -3809,21 +3838,21 @@
         <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3835,21 +3864,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3863,21 +3892,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3889,21 +3918,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>25</v>
@@ -3915,21 +3944,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>25</v>
@@ -3941,21 +3970,21 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3967,21 +3996,21 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -3994,21 +4023,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4020,21 +4049,21 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>29</v>
@@ -4046,21 +4075,21 @@
         <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4072,21 +4101,21 @@
         <v>250</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4098,21 +4127,21 @@
         <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>30</v>
@@ -4126,21 +4155,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -4152,21 +4181,21 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>45</v>
@@ -4178,21 +4207,21 @@
         <v>500</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -4206,21 +4235,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>24</v>
@@ -4232,21 +4261,21 @@
         <v>2.4</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>29</v>
@@ -4258,21 +4287,21 @@
         <v>300</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4284,21 +4313,21 @@
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>30</v>
@@ -4311,21 +4340,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -4337,21 +4366,21 @@
         <v>7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>36</v>
@@ -4363,21 +4392,21 @@
         <v>1000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4389,21 +4418,21 @@
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>30</v>
@@ -4416,21 +4445,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>30</v>
@@ -4442,21 +4471,21 @@
         <v>7</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>25</v>
@@ -4468,21 +4497,21 @@
         <v>550</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>30</v>
@@ -4496,21 +4525,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>24</v>
@@ -4522,21 +4551,21 @@
         <v>2.4</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>29</v>
@@ -4548,21 +4577,21 @@
         <v>300</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4574,21 +4603,21 @@
         <v>3</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>30</v>
@@ -4601,21 +4630,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>30</v>
@@ -4627,16 +4656,16 @@
         <v>7</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4669,39 +4698,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8214285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.5867346938776"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4713,21 +4742,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4739,21 +4768,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4767,21 +4796,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4793,21 +4822,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -4819,21 +4848,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4845,21 +4874,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4873,21 +4902,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4899,21 +4928,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4925,21 +4954,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4952,21 +4981,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4978,21 +5007,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -5004,21 +5033,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5030,21 +5059,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5056,21 +5085,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5084,21 +5113,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5110,21 +5139,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5136,21 +5165,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5164,21 +5193,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5190,21 +5219,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5216,21 +5245,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5242,21 +5271,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5269,21 +5298,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5295,21 +5324,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5321,21 +5350,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5347,21 +5376,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5374,21 +5403,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5400,21 +5429,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5426,21 +5455,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5454,21 +5483,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5480,21 +5509,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5506,21 +5535,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5532,21 +5561,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5559,21 +5588,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5585,16 +5614,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5627,39 +5656,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8214285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.5867346938776"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -5671,21 +5700,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -5697,21 +5726,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -5725,21 +5754,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -5751,21 +5780,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -5777,21 +5806,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -5803,21 +5832,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -5831,21 +5860,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -5857,21 +5886,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5883,21 +5912,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5910,21 +5939,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5936,21 +5965,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -5962,21 +5991,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5988,21 +6017,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -6014,21 +6043,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -6042,21 +6071,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -6068,21 +6097,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -6094,21 +6123,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -6122,21 +6151,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -6148,21 +6177,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -6174,21 +6203,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -6200,21 +6229,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -6227,21 +6256,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -6253,21 +6282,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -6279,21 +6308,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -6305,21 +6334,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -6332,21 +6361,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -6358,21 +6387,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -6384,21 +6413,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -6412,21 +6441,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -6438,21 +6467,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -6464,21 +6493,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -6490,21 +6519,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -6517,21 +6546,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -6543,16 +6572,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -1133,7 +1133,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F12" activeCellId="1" sqref="F5:F8 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1142,7 +1142,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.6785714285714"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6020408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1986,8 +1986,8 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1996,8 +1996,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.6785714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.469387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2827,7 +2827,7 @@
         <v>115</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,10 +2928,10 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="1" sqref="F5:F8 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2943,7 +2943,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.5867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7857142857143"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3677,7 +3677,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="F5:F8 E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3688,7 +3688,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.5867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7857142857143"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4687,7 +4687,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="F5:F8 E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4698,7 +4698,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.5867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7857142857143"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5645,7 +5645,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="1" sqref="F5:F8 F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5656,7 +5656,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.5867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7857142857143"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -1133,7 +1133,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F12" activeCellId="1" sqref="F5:F8 F12"/>
+      <selection pane="bottomLeft" activeCell="F12" activeCellId="1" sqref="G14:G15 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1142,7 +1142,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.6785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7755102040816"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6020408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1987,7 +1987,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F5:F8"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1996,8 +1996,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.6785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6581632653061"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2931,7 +2931,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D6" activeCellId="1" sqref="F5:F8 D6"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="1" sqref="G14:G15 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2943,7 +2943,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9744897959184"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3677,7 +3677,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="F5:F8 E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="G14:G15 E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3688,7 +3688,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9744897959184"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4687,7 +4687,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="F5:F8 E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="G14:G15 E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4698,7 +4698,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9744897959184"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5645,7 +5645,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="1" sqref="F5:F8 F15"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="1" sqref="G14:G15 F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5656,7 +5656,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9744897959184"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="316">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -351,6 +351,30 @@
     <t xml:space="preserve">Data (2016H)</t>
   </si>
   <si>
+    <t xml:space="preserve">muon_prompt_2016B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_prompt_2016C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_prompt_2016D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_prompt_2016E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_prompt_2016F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_prompt_2016G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muon_prompt_2016H</t>
+  </si>
+  <si>
     <t xml:space="preserve">electron_2016B</t>
   </si>
   <si>
@@ -363,16 +387,7 @@
     <t xml:space="preserve">ttjets</t>
   </si>
   <si>
-    <t xml:space="preserve">bprime_xb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data (ICHEP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data (post-ICHEP)</t>
+    <t xml:space="preserve">Data (prompt)</t>
   </si>
   <si>
     <t xml:space="preserve">variable_name</t>
@@ -1133,7 +1148,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F12" activeCellId="1" sqref="G14:G15 F12"/>
+      <selection pane="bottomLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1142,7 +1157,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.7295918367347"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6020408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1984,20 +1999,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14:G15"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5357142857143"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.7295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.5102040816327"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2178,12 +2193,12 @@
         <v>95</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -2198,12 +2213,12 @@
         <v>97</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -2218,695 +2233,837 @@
         <v>99</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>9</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>831.76</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>832</v>
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <f aca="false">0.32*0.32*(1.23/0.5)</f>
-        <v>0.251904</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>831.76</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">1.1*832</f>
+        <v>915.2</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">0.32*0.32</f>
+        <v>0.1024</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B23" s="0" t="n">
         <v>832</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C23" s="0" t="n">
         <f aca="false">0.32*0.68</f>
         <v>0.2176</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B24" s="0" t="n">
         <f aca="false">1.18*5765.4</f>
         <v>6803.172</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E24" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B25" s="0" t="n">
         <f aca="false">1.18*18610</f>
         <v>21959.8</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="0" t="n">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="0" t="n">
         <f aca="false">1.18*1016</f>
         <v>1198.88</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E26" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B27" s="0" t="n">
         <f aca="false">1.18*331</f>
         <v>390.58</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="s">
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E27" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>113.28</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>60.18</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <f aca="false">1.18*725</f>
-        <v>855.5</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <f aca="false">1.18*395</f>
-        <v>466.1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <f aca="false">1.18*97</f>
-        <v>114.46</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>57.25</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>5.595</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>4.4</v>
+        <v>113.28</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3.22</v>
+        <v>60.18</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.564</v>
+        <f aca="false">1.25*725</f>
+        <v>906.25</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>10.306</v>
+        <f aca="false">1.25*395</f>
+        <v>493.75</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1.76</v>
+        <f aca="false">1.25*97</f>
+        <v>121.25</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>69.4</v>
+        <f aca="false">1.25*36.4</f>
+        <v>45.5</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>136</v>
+        <v>57.25</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>35.6</v>
+        <v>5.595</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>35.6</v>
+        <v>4.4</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>64</v>
+      <c r="E37" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.1</v>
+        <v>0.564</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.05</v>
+        <v>10.306</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>4.939</v>
+        <v>1.76</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.004</v>
+        <v>1</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>4.939</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B49" s="0" t="n">
         <v>107.66</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C49" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D49" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E49" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F49" s="0" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="B51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="B53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="B54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="B55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="B56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2931,7 +3088,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D6" activeCellId="1" sqref="G14:G15 D6"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2943,39 +3100,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9744897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.6122448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -2987,21 +3144,21 @@
         <v>50.5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>50</v>
@@ -3013,21 +3170,21 @@
         <v>50.5</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
@@ -3039,21 +3196,21 @@
         <v>4.5</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
@@ -3065,21 +3222,21 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>25</v>
@@ -3091,21 +3248,21 @@
         <v>150</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3119,21 +3276,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>30</v>
@@ -3145,21 +3302,21 @@
         <v>4.7</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>50</v>
@@ -3171,21 +3328,21 @@
         <v>0.2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>25</v>
@@ -3197,21 +3354,21 @@
         <v>150</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3225,21 +3382,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>24</v>
@@ -3251,21 +3408,21 @@
         <v>2.4</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>50</v>
@@ -3277,21 +3434,21 @@
         <v>0.2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>8</v>
@@ -3303,21 +3460,21 @@
         <v>7.5</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4</v>
@@ -3329,21 +3486,21 @@
         <v>3.5</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -3355,21 +3512,21 @@
         <v>3.5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>30</v>
@@ -3381,21 +3538,21 @@
         <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -3408,21 +3565,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -3434,21 +3591,21 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>40</v>
@@ -3460,21 +3617,21 @@
         <v>1000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -3488,21 +3645,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>25</v>
@@ -3514,21 +3671,21 @@
         <v>5</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>40</v>
@@ -3540,21 +3697,21 @@
         <v>250</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>25</v>
@@ -3566,21 +3723,21 @@
         <v>5</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -3592,21 +3749,21 @@
         <v>150</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -3620,21 +3777,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>5</v>
@@ -3646,16 +3803,16 @@
         <v>4.5</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +3834,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="G14:G15 E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3688,39 +3845,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9744897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.6122448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3732,21 +3889,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3758,21 +3915,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3786,21 +3943,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3812,21 +3969,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -3838,21 +3995,21 @@
         <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -3864,21 +4021,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3892,21 +4049,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -3918,21 +4075,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>25</v>
@@ -3944,21 +4101,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>25</v>
@@ -3970,21 +4127,21 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3996,21 +4153,21 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -4023,21 +4180,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4049,21 +4206,21 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>29</v>
@@ -4075,21 +4232,21 @@
         <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4101,21 +4258,21 @@
         <v>250</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4127,21 +4284,21 @@
         <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>30</v>
@@ -4155,21 +4312,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -4181,21 +4338,21 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>45</v>
@@ -4207,21 +4364,21 @@
         <v>500</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -4235,21 +4392,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>24</v>
@@ -4261,21 +4418,21 @@
         <v>2.4</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>29</v>
@@ -4287,21 +4444,21 @@
         <v>300</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4313,21 +4470,21 @@
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>30</v>
@@ -4340,21 +4497,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -4366,21 +4523,21 @@
         <v>7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>36</v>
@@ -4392,21 +4549,21 @@
         <v>1000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4418,21 +4575,21 @@
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>30</v>
@@ -4445,21 +4602,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>30</v>
@@ -4471,21 +4628,21 @@
         <v>7</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>25</v>
@@ -4497,21 +4654,21 @@
         <v>550</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>30</v>
@@ -4525,21 +4682,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>24</v>
@@ -4551,21 +4708,21 @@
         <v>2.4</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>29</v>
@@ -4577,21 +4734,21 @@
         <v>300</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4603,21 +4760,21 @@
         <v>3</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>30</v>
@@ -4630,21 +4787,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>30</v>
@@ -4656,16 +4813,16 @@
         <v>7</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4687,7 +4844,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="G14:G15 E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4698,39 +4855,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9744897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.6122448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4742,21 +4899,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4768,21 +4925,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4796,21 +4953,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4822,21 +4979,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -4848,21 +5005,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4874,21 +5031,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4902,21 +5059,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4928,21 +5085,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -4954,21 +5111,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -4981,21 +5138,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5007,21 +5164,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -5033,21 +5190,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5059,21 +5216,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5085,21 +5242,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5113,21 +5270,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5139,21 +5296,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5165,21 +5322,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5193,21 +5350,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5219,21 +5376,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5245,21 +5402,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5271,21 +5428,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5298,21 +5455,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5324,21 +5481,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5350,21 +5507,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5376,21 +5533,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5403,21 +5560,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5429,21 +5586,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5455,21 +5612,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5483,21 +5640,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5509,21 +5666,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5535,21 +5692,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5561,21 +5718,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5588,21 +5745,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5614,16 +5771,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5645,7 +5802,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="1" sqref="G14:G15 F15"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5656,39 +5813,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9744897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.6122448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -5700,21 +5857,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -5726,21 +5883,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -5754,21 +5911,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -5780,21 +5937,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -5806,21 +5963,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -5832,21 +5989,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -5860,21 +6017,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -5886,21 +6043,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5912,21 +6069,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5939,21 +6096,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5965,21 +6122,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -5991,21 +6148,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -6017,21 +6174,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -6043,21 +6200,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -6071,21 +6228,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -6097,21 +6254,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -6123,21 +6280,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -6151,21 +6308,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -6177,21 +6334,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -6203,21 +6360,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -6229,21 +6386,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -6256,21 +6413,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -6282,21 +6439,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -6308,21 +6465,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -6334,21 +6491,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -6361,21 +6518,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -6387,21 +6544,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -6413,21 +6570,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -6441,21 +6598,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -6467,21 +6624,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -6493,21 +6650,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -6519,21 +6676,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -6546,21 +6703,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -6572,16 +6729,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="316">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -1157,7 +1157,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.7295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.9183673469388"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6020408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2001,8 +2001,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2011,8 +2011,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.7295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.5102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.9183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.7091836734694"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2401,8 +2401,8 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="n">
-        <f aca="false">1.1*832</f>
-        <v>915.2</v>
+        <f aca="false">832</f>
+        <v>832</v>
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">0.32*0.32</f>
@@ -2655,7 +2655,8 @@
         <v>57.25</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>1</v>
+        <f aca="false">0.32*0.32</f>
+        <v>0.1024</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>49</v>
@@ -2792,7 +2793,7 @@
         <v>67</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>69.4</v>
+        <v>136</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -2812,7 +2813,7 @@
         <v>69</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>1</v>
@@ -3100,7 +3101,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.6122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.9897959183674"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3834,7 +3835,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3845,7 +3846,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.6122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.9897959183674"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4855,7 +4856,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.6122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.9897959183674"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5799,10 +5800,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5813,7 +5814,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.6122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.9897959183674"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -6057,19 +6058,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>147</v>
@@ -6078,80 +6079,80 @@
         <v>192</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B14" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>293</v>
-      </c>
       <c r="F14" s="0" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>192</v>
@@ -6162,7 +6163,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -6171,13 +6172,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>192</v>
@@ -6188,22 +6189,22 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>192</v>
@@ -6214,156 +6215,156 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B19" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="F19" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B22" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C22" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="F23" s="0" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>225</v>
@@ -6374,19 +6375,19 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>147</v>
@@ -6400,260 +6401,260 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B27" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E27" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="F27" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H26" s="0" t="s">
+      <c r="H27" s="0" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>225</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="0" t="s">
+      <c r="F32" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H31" s="0" t="s">
+      <c r="H32" s="0" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>550</v>
+        <v>7</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>225</v>
       </c>
       <c r="H33" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B36" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <f aca="false">-PI()</f>
         <v>-3.14159265358979</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D36" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E36" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>312</v>
-      </c>
       <c r="F36" s="0" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>225</v>
@@ -6664,19 +6665,19 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>147</v>
@@ -6690,54 +6691,106 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C38" s="0" t="n">
+      <c r="B40" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D40" s="0" t="n">
         <f aca="false">PI()</f>
         <v>3.14159265358979</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E40" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="0" t="s">
+      <c r="F40" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H40" s="0" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C39" s="0" t="n">
+      <c r="B41" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D41" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E41" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" s="0" t="s">
+      <c r="F41" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H41" s="0" t="s">
         <v>248</v>
       </c>
     </row>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -1157,7 +1157,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.9183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.0204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6020408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2002,7 +2002,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2011,8 +2011,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.9183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.7091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.0204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.8112244897959"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2405,8 +2405,8 @@
         <v>832</v>
       </c>
       <c r="C22" s="0" t="n">
-        <f aca="false">0.32*0.32</f>
-        <v>0.1024</v>
+        <f aca="false">0.32*0.32*1.8</f>
+        <v>0.18432</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>21</v>
@@ -3101,7 +3101,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.9897959183674"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.1785714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3846,7 +3846,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.9897959183674"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.1785714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4856,7 +4856,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.9897959183674"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.1785714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5814,7 +5814,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.9897959183674"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.1785714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="321">
   <si>
     <t xml:space="preserve">dataset_name</t>
   </si>
@@ -387,7 +387,22 @@
     <t xml:space="preserve">ttjets</t>
   </si>
   <si>
+    <t xml:space="preserve">zjets_hm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zjets_lm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Data (prompt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z+jets (m &gt; 50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z+jets (10 &lt; m &lt; 50)</t>
   </si>
   <si>
     <t xml:space="preserve">variable_name</t>
@@ -1157,7 +1172,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.0204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.219387755102"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6020408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -1999,10 +2014,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2011,8 +2026,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.0204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.8112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.219387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2405,8 +2420,8 @@
         <v>832</v>
       </c>
       <c r="C22" s="0" t="n">
-        <f aca="false">0.32*0.32*1.8</f>
-        <v>0.18432</v>
+        <f aca="false">0.32*0.32*1.95</f>
+        <v>0.19968</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>21</v>
@@ -2457,7 +2472,7 @@
         <v>28</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,8 +2480,8 @@
         <v>38</v>
       </c>
       <c r="B25" s="0" t="n">
-        <f aca="false">1.18*18610</f>
-        <v>21959.8</v>
+        <f aca="false">1.2*18610</f>
+        <v>22332</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -2478,7 +2493,7 @@
         <v>39</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,7 +2514,7 @@
         <v>31</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,7 +2535,7 @@
         <v>33</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,6 +2543,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="n">
+        <f aca="false">1.18*96</f>
         <v>113.28</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -2540,7 +2556,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,6 +2564,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="n">
+        <f aca="false">1.18*51</f>
         <v>60.18</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -2560,7 +2577,7 @@
         <v>37</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,8 +2585,8 @@
         <v>40</v>
       </c>
       <c r="B30" s="0" t="n">
-        <f aca="false">1.25*725</f>
-        <v>906.25</v>
+        <f aca="false">1.2*725</f>
+        <v>870</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -2581,7 +2598,7 @@
         <v>41</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,8 +2606,8 @@
         <v>42</v>
       </c>
       <c r="B31" s="0" t="n">
-        <f aca="false">1.25*395</f>
-        <v>493.75</v>
+        <f aca="false">1.2*395</f>
+        <v>474</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -2602,7 +2619,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,8 +2627,8 @@
         <v>44</v>
       </c>
       <c r="B32" s="0" t="n">
-        <f aca="false">1.25*97</f>
-        <v>121.25</v>
+        <f aca="false">1.2*97</f>
+        <v>116.4</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -2623,7 +2640,7 @@
         <v>45</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,8 +2648,8 @@
         <v>46</v>
       </c>
       <c r="B33" s="0" t="n">
-        <f aca="false">1.25*36.4</f>
-        <v>45.5</v>
+        <f aca="false">1.2*36.4</f>
+        <v>43.68</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -2644,7 +2661,7 @@
         <v>47</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,7 +2999,7 @@
         <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>109</v>
@@ -3066,6 +3083,46 @@
       </c>
       <c r="F56" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3101,39 +3158,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.1785714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.7551020408163"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>50</v>
@@ -3145,21 +3202,21 @@
         <v>50.5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>50</v>
@@ -3171,21 +3228,21 @@
         <v>50.5</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5</v>
@@ -3197,21 +3254,21 @@
         <v>4.5</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
@@ -3223,21 +3280,21 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>25</v>
@@ -3249,21 +3306,21 @@
         <v>150</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -3277,21 +3334,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>30</v>
@@ -3303,21 +3360,21 @@
         <v>4.7</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>50</v>
@@ -3329,21 +3386,21 @@
         <v>0.2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>25</v>
@@ -3355,21 +3412,21 @@
         <v>150</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -3383,21 +3440,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>24</v>
@@ -3409,21 +3466,21 @@
         <v>2.4</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>50</v>
@@ -3435,21 +3492,21 @@
         <v>0.2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>8</v>
@@ -3461,21 +3518,21 @@
         <v>7.5</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4</v>
@@ -3487,21 +3544,21 @@
         <v>3.5</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -3513,21 +3570,21 @@
         <v>3.5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>30</v>
@@ -3539,21 +3596,21 @@
         <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -3566,21 +3623,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -3592,21 +3649,21 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>40</v>
@@ -3618,21 +3675,21 @@
         <v>1000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -3646,21 +3703,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>25</v>
@@ -3672,21 +3729,21 @@
         <v>5</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>40</v>
@@ -3698,21 +3755,21 @@
         <v>250</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>25</v>
@@ -3724,21 +3781,21 @@
         <v>5</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -3750,21 +3807,21 @@
         <v>150</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -3778,21 +3835,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>5</v>
@@ -3804,16 +3861,16 @@
         <v>4.5</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3846,39 +3903,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.1785714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.7551020408163"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -3890,21 +3947,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -3916,21 +3973,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -3944,21 +4001,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -3970,21 +4027,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>35</v>
@@ -3996,21 +4053,21 @@
         <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -4022,21 +4079,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -4050,21 +4107,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -4076,21 +4133,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>25</v>
@@ -4102,21 +4159,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>25</v>
@@ -4128,21 +4185,21 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -4154,21 +4211,21 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -4181,21 +4238,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -4207,21 +4264,21 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>29</v>
@@ -4233,21 +4290,21 @@
         <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -4259,21 +4316,21 @@
         <v>250</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -4285,21 +4342,21 @@
         <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>30</v>
@@ -4313,21 +4370,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -4339,21 +4396,21 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>45</v>
@@ -4365,21 +4422,21 @@
         <v>500</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -4393,21 +4450,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>24</v>
@@ -4419,21 +4476,21 @@
         <v>2.4</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>29</v>
@@ -4445,21 +4502,21 @@
         <v>300</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -4471,21 +4528,21 @@
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>30</v>
@@ -4498,21 +4555,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -4524,21 +4581,21 @@
         <v>7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>36</v>
@@ -4550,21 +4607,21 @@
         <v>1000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -4576,21 +4633,21 @@
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>30</v>
@@ -4603,21 +4660,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>30</v>
@@ -4629,21 +4686,21 @@
         <v>7</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>25</v>
@@ -4655,21 +4712,21 @@
         <v>550</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>30</v>
@@ -4683,21 +4740,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>24</v>
@@ -4709,21 +4766,21 @@
         <v>2.4</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>29</v>
@@ -4735,21 +4792,21 @@
         <v>300</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -4761,21 +4818,21 @@
         <v>3</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>30</v>
@@ -4788,21 +4845,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>30</v>
@@ -4814,16 +4871,16 @@
         <v>7</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4856,39 +4913,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.1785714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.7551020408163"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -4900,21 +4957,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -4926,21 +4983,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -4954,21 +5011,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -4980,21 +5037,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>26</v>
@@ -5006,21 +5063,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -5032,21 +5089,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -5060,21 +5117,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -5086,21 +5143,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>30</v>
@@ -5112,21 +5169,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>30</v>
@@ -5139,21 +5196,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -5165,21 +5222,21 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>29</v>
@@ -5191,21 +5248,21 @@
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -5217,21 +5274,21 @@
         <v>250</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>30</v>
@@ -5243,21 +5300,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -5271,21 +5328,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -5297,21 +5354,21 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>45</v>
@@ -5323,21 +5380,21 @@
         <v>500</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>30</v>
@@ -5351,21 +5408,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>24</v>
@@ -5377,21 +5434,21 @@
         <v>2.4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>29</v>
@@ -5403,21 +5460,21 @@
         <v>300</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>30</v>
@@ -5429,21 +5486,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>30</v>
@@ -5456,21 +5513,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -5482,21 +5539,21 @@
         <v>7</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>45</v>
@@ -5508,21 +5565,21 @@
         <v>1000</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -5534,21 +5591,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5561,21 +5618,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5587,21 +5644,21 @@
         <v>7</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>25</v>
@@ -5613,21 +5670,21 @@
         <v>550</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -5641,21 +5698,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -5667,21 +5724,21 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>29</v>
@@ -5693,21 +5750,21 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -5719,21 +5776,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -5746,21 +5803,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -5772,16 +5829,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5814,39 +5871,39 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.1785714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.7551020408163"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>26</v>
@@ -5858,21 +5915,21 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>24</v>
@@ -5884,21 +5941,21 @@
         <v>2.4</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>30</v>
@@ -5912,21 +5969,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>25</v>
@@ -5938,21 +5995,21 @@
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>36</v>
@@ -5964,21 +6021,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>24</v>
@@ -5990,21 +6047,21 @@
         <v>2.4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>30</v>
@@ -6018,21 +6075,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>25</v>
@@ -6044,21 +6101,21 @@
         <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>25</v>
@@ -6070,21 +6127,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>25</v>
@@ -6096,21 +6153,21 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>30</v>
@@ -6122,21 +6179,21 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>30</v>
@@ -6149,21 +6206,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>30</v>
@@ -6175,21 +6232,21 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>29</v>
@@ -6201,21 +6258,21 @@
         <v>70</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>30</v>
@@ -6227,21 +6284,21 @@
         <v>250</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>30</v>
@@ -6253,21 +6310,21 @@
         <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>30</v>
@@ -6281,21 +6338,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>30</v>
@@ -6307,21 +6364,21 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>45</v>
@@ -6333,21 +6390,21 @@
         <v>500</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>30</v>
@@ -6361,21 +6418,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>24</v>
@@ -6387,21 +6444,21 @@
         <v>2.4</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>29</v>
@@ -6413,21 +6470,21 @@
         <v>300</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>30</v>
@@ -6439,21 +6496,21 @@
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>30</v>
@@ -6466,21 +6523,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -6492,21 +6549,21 @@
         <v>7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>45</v>
@@ -6518,21 +6575,21 @@
         <v>1000</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -6544,21 +6601,21 @@
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>30</v>
@@ -6571,21 +6628,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>30</v>
@@ -6597,21 +6654,21 @@
         <v>7</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>25</v>
@@ -6623,21 +6680,21 @@
         <v>550</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>30</v>
@@ -6651,21 +6708,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>24</v>
@@ -6677,21 +6734,21 @@
         <v>2.4</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>29</v>
@@ -6703,21 +6760,21 @@
         <v>300</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -6729,21 +6786,21 @@
         <v>3</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>30</v>
@@ -6756,21 +6813,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>30</v>
@@ -6782,16 +6839,16 @@
         <v>7</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -387,19 +387,19 @@
     <t xml:space="preserve">ttjets</t>
   </si>
   <si>
+    <t xml:space="preserve">Data (prompt)</t>
+  </si>
+  <si>
     <t xml:space="preserve">zjets_hm</t>
   </si>
   <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z+jets (m &gt; 50)</t>
+  </si>
+  <si>
     <t xml:space="preserve">zjets_lm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data (prompt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z+jets (m &gt; 50)</t>
   </si>
   <si>
     <t xml:space="preserve">Z+jets (10 &lt; m &lt; 50)</t>
@@ -1163,7 +1163,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F12" activeCellId="1" sqref="F24:F33 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1172,7 +1172,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.219387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.3061224489796"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6020408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2016,8 +2016,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2026,8 +2026,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.219387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.3061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.0867346938776"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2472,7 +2472,7 @@
         <v>28</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,7 +2493,7 @@
         <v>39</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,7 +2514,7 @@
         <v>31</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,7 +2535,7 @@
         <v>33</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2556,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,7 +2577,7 @@
         <v>37</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,7 +2598,7 @@
         <v>41</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,7 +2619,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,7 +2640,7 @@
         <v>45</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,7 +2661,7 @@
         <v>47</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,7 +2999,7 @@
         <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>109</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>1</v>
@@ -3096,18 +3096,18 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>1</v>
@@ -3122,7 +3122,7 @@
         <v>125</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3146,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="1" sqref="F24:F33 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3158,7 +3158,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.7551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0408163265306"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3892,7 +3892,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="F24:F33 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3903,7 +3903,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.7551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0408163265306"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4902,7 +4902,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="F24:F33 E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4913,7 +4913,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.7551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0408163265306"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5860,7 +5860,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="1" sqref="F24:F33 E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5871,7 +5871,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.7551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0408163265306"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -387,19 +387,19 @@
     <t xml:space="preserve">ttjets</t>
   </si>
   <si>
+    <t xml:space="preserve">zjets_hm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zjets_lm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Data (prompt)</t>
   </si>
   <si>
-    <t xml:space="preserve">zjets_hm</t>
-  </si>
-  <si>
     <t xml:space="preserve">b</t>
   </si>
   <si>
     <t xml:space="preserve">Z+jets (m &gt; 50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zjets_lm</t>
   </si>
   <si>
     <t xml:space="preserve">Z+jets (10 &lt; m &lt; 50)</t>
@@ -1163,7 +1163,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F12" activeCellId="1" sqref="F24:F33 F12"/>
+      <selection pane="bottomLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1172,7 +1172,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.3061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4081632653061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6020408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2014,10 +2014,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24:F33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2026,8 +2026,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.3061224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.0867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4387755102041"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2454,272 +2454,232 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B26" s="0" t="n">
         <f aca="false">1.18*5765.4</f>
         <v>6803.172</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E26" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="F26" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">1.18*1016</f>
+        <v>1198.88</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">1.18*331</f>
+        <v>390.58</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">1.18*96</f>
+        <v>113.28</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">1.18*51</f>
+        <v>60.18</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B31" s="0" t="n">
         <f aca="false">1.2*18610</f>
         <v>22332</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E31" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <f aca="false">1.18*1016</f>
-        <v>1198.88</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <f aca="false">1.18*331</f>
-        <v>390.58</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <f aca="false">1.18*96</f>
-        <v>113.28</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <f aca="false">1.18*51</f>
-        <v>60.18</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="F31" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B32" s="0" t="n">
         <f aca="false">1.2*725</f>
         <v>870</v>
       </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="s">
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="F32" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B33" s="0" t="n">
         <f aca="false">1.2*395</f>
         <v>474</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E33" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="F33" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B34" s="0" t="n">
         <f aca="false">1.2*97</f>
         <v>116.4</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="0" t="s">
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E34" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="F34" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B35" s="0" t="n">
         <f aca="false">1.2*36.4</f>
         <v>43.68</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="s">
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E35" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="F35" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B36" s="0" t="n">
         <v>57.25</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C36" s="0" t="n">
         <f aca="false">0.32*0.32</f>
         <v>0.1024</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E36" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>5.595</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>51</v>
@@ -2727,19 +2687,19 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>3.22</v>
+        <v>5.595</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>51</v>
@@ -2747,19 +2707,19 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.564</v>
+        <v>4.4</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>51</v>
@@ -2767,10 +2727,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>10.306</v>
+        <v>3.22</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -2779,18 +2739,18 @@
         <v>58</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1.76</v>
+        <v>0.564</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -2799,18 +2759,18 @@
         <v>58</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>136</v>
+        <v>10.306</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -2819,7 +2779,7 @@
         <v>58</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>64</v>
@@ -2827,10 +2787,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>81</v>
+        <v>1.76</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>1</v>
@@ -2839,7 +2799,7 @@
         <v>58</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>64</v>
@@ -2847,10 +2807,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>35.6</v>
+        <v>136</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
@@ -2859,7 +2819,7 @@
         <v>58</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>64</v>
@@ -2867,10 +2827,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>35.6</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1</v>
@@ -2879,135 +2839,135 @@
         <v>58</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.13</v>
+        <v>35.6</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>4.939</v>
+        <v>0.13</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.004</v>
+        <v>1</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>4.939</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B51" s="0" t="n">
         <v>107.66</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C51" s="0" t="n">
         <v>0.004</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E51" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F51" s="0" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>1</v>
@@ -3016,18 +2976,18 @@
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>1</v>
@@ -3036,18 +2996,18 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>1</v>
@@ -3056,18 +3016,18 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>1</v>
@@ -3076,18 +3036,18 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>1</v>
@@ -3096,33 +3056,73 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="F59" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>124</v>
+      <c r="F60" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3146,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D6" activeCellId="1" sqref="F24:F33 D6"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3158,7 +3158,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.2295918367347"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3892,7 +3892,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="F24:F33 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3903,7 +3903,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.2295918367347"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4902,7 +4902,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="F24:F33 E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4913,7 +4913,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.2295918367347"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5860,7 +5860,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="1" sqref="F24:F33 E23"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5871,7 +5871,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.2295918367347"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -1172,7 +1172,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4948979591837"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6020408163265"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2016,8 +2016,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2026,8 +2026,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4948979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5102040816327"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -2420,8 +2420,8 @@
         <v>832</v>
       </c>
       <c r="C22" s="0" t="n">
-        <f aca="false">0.32*0.32*1.95</f>
-        <v>0.19968</v>
+        <f aca="false">0.32*0.32*1.8*1.18</f>
+        <v>0.2174976</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>21</v>
@@ -2463,7 +2463,7 @@
         <v>6803.172</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>27</v>
@@ -2484,7 +2484,7 @@
         <v>1198.88</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>27</v>
@@ -2505,7 +2505,7 @@
         <v>390.58</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>27</v>
@@ -2526,7 +2526,7 @@
         <v>113.28</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>27</v>
@@ -2547,7 +2547,7 @@
         <v>60.18</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>27</v>
@@ -2568,7 +2568,7 @@
         <v>22332</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>27</v>
@@ -2589,7 +2589,7 @@
         <v>870</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>27</v>
@@ -2610,7 +2610,7 @@
         <v>474</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>27</v>
@@ -2631,7 +2631,7 @@
         <v>116.4</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>27</v>
@@ -2652,7 +2652,7 @@
         <v>43.68</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>27</v>
@@ -3158,7 +3158,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.4285714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -3903,7 +3903,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.4285714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -4913,7 +4913,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.4285714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5871,7 +5871,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5459183673469"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3469387755102"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.4285714285714"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>

--- a/data/plotting_lut.xlsx
+++ b/data/plotting_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="datasets_2012" sheetId="1" state="visible" r:id="rId2"/>
@@ -1149,454 +1149,454 @@
     <t xml:space="preserve">M_{e e} \, [GeV]</t>
   </si>
   <si>
+    <t xml:space="preserve">dilepton1_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e e} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton1_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{e e}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton1_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{e e}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton1_pt_over_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e e}/M_{e e}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton1_pt_asym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(p_{T}^{1} – p_{T}^{2})/(p_{T}^{1} + p_{T}^{2})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j1_mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e j1} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton_jet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j1_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{e j1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j1_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{e j1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j1_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e j1} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j1_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(e,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j1_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(e,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j1_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(e,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j2_mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e e j2} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j2_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{e j2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j2_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{e j2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j2_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e j2} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j2_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(e,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j2_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(e,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton1_j2_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(e,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j1_mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j1_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j1_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j1_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j1_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j1_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j1_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j2_mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e j2} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j2_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j2_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j2_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j2_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j2_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepton2_j2_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j1_mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e e j1} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j1_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{ee j1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j1_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{e e j1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j1_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e e j1} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j1_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(ee,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j1_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(ee,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j1_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(ee,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j2_mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j2_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{ee j2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j2_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{e e j2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j2_pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{e e j2} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j2_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(ee,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j2_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(ee,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilepton_j2_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(ee,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four_body_mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e e jj} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_bjets &gt; 0 and (n_jets &gt; 0 or n_fwdjets &gt; 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four_body_delta_eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(ee,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four_body_delta_phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(ee,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four_body_delta_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(ee,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_{T}^{\mu} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entries \,/\, 2.5 \, GeV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lead \mu d_{0} [cm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lead \mu d_{z} [cm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trailing \mu d_{0} [cm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trailing \mu d_{z} [cm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\cos (\theta_{\mu+})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\cos (\theta_{\mu-})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(\mu, \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(\mu, \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(\mu \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{\mu \mu} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu \mu} \, [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{\mu \mu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{\mu \mu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu \mu}/M_{\mu \mu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(p_{T}^{\mu} – p_{T}^{e})/(p_{T}^{\mu} + p_{T}^{e})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{\mu j1} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{\mu j1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{\mu j1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu j1} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(\mu,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(\mu,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(\mu,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e \mu j2} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{\mu j2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{\mu j2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu j2} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(\mu,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(\mu,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(\mu,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{\mu j2} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{\mu \mu j1} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{\mu\mu j1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{\mu \mu j1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu \mu j1} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(\mu\mu,\, j1)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{\mu \mu j2} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\phi_{\mu\mu j2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\eta_{\mu \mu j2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_{T}^{\mu \mu j2} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(\mu\mu,\, j2)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{\mu \mu jj} [GeV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(\mu\mu,\, jj)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_{0,\mu} [cm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_{z, \mu} [cm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_{0, e} [cm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_{z, e} [cm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\eta(e, \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta\phi(e, \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|\Delta R(e, \mu)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_{e \mu} \, [GeV]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entries \,/\, 4 \, GeV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton1_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{e e} \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton1_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{e e}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton1_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{e e}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton1_pt_over_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{e e}/M_{e e}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton1_pt_asym</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(p_{T}^{1} – p_{T}^{2})/(p_{T}^{1} + p_{T}^{2})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j1_mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{e j1} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton_jet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j1_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{e j1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j1_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{e j1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j1_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{e j1} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j1_delta_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(e,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j1_delta_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(e,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j1_delta_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(e,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j2_mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{e e j2} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j2_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{e j2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j2_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{e j2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j2_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{e j2} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j2_delta_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(e,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j2_delta_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(e,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton1_j2_delta_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(e,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j1_mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j1_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j1_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j1_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j1_delta_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j1_delta_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j1_delta_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j2_mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{e j2} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j2_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j2_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j2_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j2_delta_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j2_delta_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepton2_j2_delta_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j1_mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{e e j1} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j1_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{ee j1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j1_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{e e j1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j1_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{e e j1} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j1_delta_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(ee,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j1_delta_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(ee,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j1_delta_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(ee,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j2_mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j2_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{ee j2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j2_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{e e j2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j2_pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{e e j2} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j2_delta_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(ee,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j2_delta_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(ee,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dilepton_j2_delta_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(ee,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four_body_mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{e e jj} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_bjets &gt; 0 and (n_jets &gt; 0 or n_fwdjets &gt; 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four_body_delta_eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(ee,\, jj)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four_body_delta_phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(ee,\, jj)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four_body_delta_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(ee,\, jj)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu} \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_{T}^{\mu} \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entries \,/\, 2.5 \, GeV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lead \mu d_{0} [cm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lead \mu d_{z} [cm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trailing \mu d_{0} [cm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trailing \mu d_{z} [cm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\cos (\theta_{\mu+})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\cos (\theta_{\mu-})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(\mu, \mu)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(\mu, \mu)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(\mu \mu)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{\mu \mu} \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu \mu} \, [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{\mu \mu}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{\mu \mu}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu \mu}/M_{\mu \mu}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(p_{T}^{\mu} – p_{T}^{e})/(p_{T}^{\mu} + p_{T}^{e})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{\mu j1} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{\mu j1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{\mu j1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu j1} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(\mu,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(\mu,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(\mu,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{e \mu j2} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{\mu j2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{\mu j2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu j2} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(\mu,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(\mu,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(\mu,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{\mu j2} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{\mu \mu j1} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{\mu\mu j1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{\mu \mu j1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu \mu j1} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(\mu\mu,\, j1)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{\mu \mu j2} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\phi_{\mu\mu j2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\eta_{\mu \mu j2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_{T}^{\mu \mu j2} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(\mu\mu,\, j2)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{\mu \mu jj} [GeV]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(\mu\mu,\, jj)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(\mu\mu,\, jj)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(\mu\mu,\, jj)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_{0,\mu} [cm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_{z, \mu} [cm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_{0, e} [cm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_{z, e} [cm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\eta(e, \mu)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta\phi(e, \mu)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|\Delta R(e, \mu)|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_{e \mu} \, [GeV]</t>
   </si>
   <si>
     <t xml:space="preserve">p_{T}^{e \mu} \, [GeV]</t>
@@ -3299,10 +3299,10 @@
         <v>250</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>330</v>
@@ -3325,10 +3325,10 @@
         <v>150</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>464</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>465</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>330</v>
@@ -3457,13 +3457,13 @@
         <v>500</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>257</v>
@@ -3483,13 +3483,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>257</v>
@@ -3509,13 +3509,13 @@
         <v>2.4</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>257</v>
@@ -3535,13 +3535,13 @@
         <v>300</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>255</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>257</v>
@@ -3561,13 +3561,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>257</v>
@@ -3587,13 +3587,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>257</v>
@@ -3613,13 +3613,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>257</v>
@@ -3639,13 +3639,13 @@
         <v>500</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>268</v>
@@ -3665,13 +3665,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>268</v>
@@ -3697,7 +3697,7 @@
         <v>252</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>268</v>
@@ -3723,7 +3723,7 @@
         <v>304</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>268</v>
@@ -3743,13 +3743,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>268</v>
@@ -3769,13 +3769,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>268</v>
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>268</v>
@@ -3827,7 +3827,7 @@
         <v>304</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>257</v>
@@ -3853,7 +3853,7 @@
         <v>252</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>257</v>
@@ -3879,7 +3879,7 @@
         <v>252</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>257</v>
@@ -3905,7 +3905,7 @@
         <v>255</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>257</v>
@@ -3931,7 +3931,7 @@
         <v>252</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>257</v>
@@ -3957,7 +3957,7 @@
         <v>252</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>257</v>
@@ -3983,7 +3983,7 @@
         <v>252</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>257</v>
@@ -4009,7 +4009,7 @@
         <v>304</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>268</v>
@@ -4035,7 +4035,7 @@
         <v>252</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>268</v>
@@ -4061,7 +4061,7 @@
         <v>252</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>268</v>
@@ -4087,7 +4087,7 @@
         <v>304</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>268</v>
@@ -4113,7 +4113,7 @@
         <v>252</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>268</v>
@@ -4139,7 +4139,7 @@
         <v>252</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>268</v>
@@ -4165,7 +4165,7 @@
         <v>252</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>268</v>
@@ -4188,10 +4188,10 @@
         <v>629</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>257</v>
@@ -4217,7 +4217,7 @@
         <v>252</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>257</v>
@@ -4243,7 +4243,7 @@
         <v>252</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>257</v>
@@ -4269,7 +4269,7 @@
         <v>304</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>257</v>
@@ -4295,7 +4295,7 @@
         <v>252</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>257</v>
@@ -4321,7 +4321,7 @@
         <v>252</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>257</v>
@@ -4347,7 +4347,7 @@
         <v>252</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>257</v>
@@ -4373,7 +4373,7 @@
         <v>255</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>257</v>
@@ -4399,7 +4399,7 @@
         <v>252</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>257</v>
@@ -4425,7 +4425,7 @@
         <v>252</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>257</v>
@@ -4451,7 +4451,7 @@
         <v>304</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>257</v>
@@ -4477,7 +4477,7 @@
         <v>252</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>257</v>
@@ -4503,7 +4503,7 @@
         <v>252</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>257</v>
@@ -4529,7 +4529,7 @@
         <v>252</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>257</v>
@@ -4609,7 +4609,7 @@
         <v>150</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>255</v>
@@ -4741,7 +4741,7 @@
         <v>90</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>349</v>
@@ -4873,7 +4873,7 @@
         <v>80</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>255</v>
@@ -5003,7 +5003,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>349</v>
@@ -5133,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>252</v>
@@ -5159,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>252</v>
@@ -5185,7 +5185,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>252</v>
@@ -5211,7 +5211,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>252</v>
@@ -5237,7 +5237,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>252</v>
@@ -5263,7 +5263,7 @@
         <v>150</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>680</v>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -5289,7 +5289,7 @@
         <v>250</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>304</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -5315,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>252</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>30</v>
@@ -5341,7 +5341,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>252</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>30</v>
@@ -5367,7 +5367,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>252</v>
@@ -5393,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>252</v>
@@ -5420,7 +5420,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>252</v>
@@ -5446,7 +5446,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>252</v>
@@ -5472,7 +5472,7 @@
         <v>3.4</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>685</v>
@@ -5498,7 +5498,7 @@
         <v>250</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>304</v>
@@ -5524,7 +5524,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>252</v>
@@ -5552,7 +5552,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>252</v>
@@ -5578,7 +5578,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>252</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>45</v>
@@ -5812,13 +5812,13 @@
         <v>500</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>257</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>30</v>
@@ -5840,13 +5840,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>257</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>24</v>
@@ -5866,13 +5866,13 @@
         <v>2.4</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>257</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>29</v>
@@ -5892,13 +5892,13 @@
         <v>300</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>257</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>30</v>
@@ -5918,13 +5918,13 @@
         <v>3</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>257</v>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>30</v>
@@ -5945,13 +5945,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>257</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>30</v>
@@ -5971,13 +5971,13 @@
         <v>7</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>257</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>45</v>
@@ -5997,13 +5997,13 @@
         <v>500</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>257</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>30</v>
@@ -6023,13 +6023,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>257</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>24</v>
@@ -6049,13 +6049,13 @@
         <v>2.4</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>257</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>29</v>
@@ -6075,13 +6075,13 @@
         <v>300</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>257</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>30</v>
@@ -6101,13 +6101,13 @@
         <v>3</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>257</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>30</v>
@@ -6127,13 +6127,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>257</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>30</v>
@@ -6153,13 +6153,13 @@
         <v>7</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>257</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>36</v>
@@ -6179,21 +6179,21 @@
         <v>1000</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>297</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>30</v>
@@ -6205,21 +6205,21 @@
         <v>3</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>30</v>
@@ -6232,21 +6232,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>30</v>
@@ -6258,16 +6258,16 @@
         <v>7</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -6396,7 +6396,7 @@
         <v>250</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>255</v>
@@ -6528,7 +6528,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>252</v>
@@ -6554,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>252</v>
@@ -6580,7 +6580,7 @@
         <v>150</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>349</v>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>252</v>
@@ -6738,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>252</v>
@@ -6764,7 +6764,7 @@
         <v>80</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>349</v>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>252</v>
@@ -6972,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>252</v>
@@ -6998,7 +6998,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>252</v>
@@ -7025,7 +7025,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>252</v>
@@ -7051,7 +7051,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>252</v>
@@ -7077,10 +7077,10 @@
         <v>105</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>372</v>
+        <v>521</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>330</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>30</v>
@@ -7103,7 +7103,7 @@
         <v>250</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>304</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>30</v>
@@ -7129,7 +7129,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>252</v>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -7157,7 +7157,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>252</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>30</v>
@@ -7183,7 +7183,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>252</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>50</v>
@@ -7316,7 +7316,7 @@
         <v>719</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>372</v>
+        <v>521</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>330</v>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>50</v>
@@ -7365,13 +7365,13 @@
         <v>500</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>257</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>30</v>
@@ -7391,13 +7391,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>257</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>24</v>
@@ -7417,13 +7417,13 @@
         <v>2.4</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>257</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>60</v>
@@ -7443,13 +7443,13 @@
         <v>300</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>255</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>257</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>30</v>
@@ -7469,13 +7469,13 @@
         <v>3</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>257</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>30</v>
@@ -7495,13 +7495,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>257</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>30</v>
@@ -7521,13 +7521,13 @@
         <v>7</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>257</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>50</v>
@@ -7547,13 +7547,13 @@
         <v>500</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>268</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>30</v>
@@ -7573,13 +7573,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>268</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>24</v>
@@ -7599,13 +7599,13 @@
         <v>2.4</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>268</v>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>29</v>
@@ -7625,13 +7625,13 @@
         <v>300</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>268</v>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>30</v>
@@ -7651,13 +7651,13 @@
         <v>3</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>268</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>30</v>
@@ -7677,13 +7677,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>268</v>
@@ -7691,7 +7691,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>30</v>
@@ -7703,13 +7703,13 @@
         <v>7</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>268</v>
@@ -7717,7 +7717,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>50</v>
@@ -7729,13 +7729,13 @@
         <v>500</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>257</v>
@@ -7743,7 +7743,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>30</v>
@@ -7755,13 +7755,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>257</v>
@@ -7769,7 +7769,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>24</v>
@@ -7781,13 +7781,13 @@
         <v>2.4</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>257</v>
@@ -7795,7 +7795,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>29</v>
@@ -7807,13 +7807,13 @@
         <v>300</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>257</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>30</v>
@@ -7833,13 +7833,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>257</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>30</v>
@@ -7859,13 +7859,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>257</v>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>30</v>
@@ -7885,13 +7885,13 @@
         <v>7</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>257</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>50</v>
@@ -7911,13 +7911,13 @@
         <v>500</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>268</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>30</v>
@@ -7937,13 +7937,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>268</v>
@@ -7951,7 +7951,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>24</v>
@@ -7963,13 +7963,13 @@
         <v>2.4</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>268</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>29</v>
@@ -7989,13 +7989,13 @@
         <v>300</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>268</v>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>30</v>
@@ -8015,13 +8015,13 @@
         <v>3</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>268</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>30</v>
@@ -8041,13 +8041,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>268</v>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>30</v>
@@ -8067,13 +8067,13 @@
         <v>7</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>268</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>45</v>
@@ -8093,13 +8093,13 @@
         <v>500</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>257</v>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>30</v>
@@ -8121,13 +8121,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>257</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>24</v>
@@ -8147,13 +8147,13 @@
         <v>2.4</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>257</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>29</v>
@@ -8173,13 +8173,13 @@
         <v>300</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>257</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>30</v>
@@ -8199,13 +8199,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>257</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>30</v>
@@ -8226,13 +8226,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>257</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>30</v>
@@ -8252,13 +8252,13 @@
         <v>7</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>257</v>
@@ -8266,7 +8266,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>45</v>
@@ -8278,13 +8278,13 @@
         <v>500</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>257</v>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>30</v>
@@ -8304,13 +8304,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>257</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>24</v>
@@ -8330,13 +8330,13 @@
         <v>2.4</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>257</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>29</v>
@@ -8356,13 +8356,13 @@
         <v>300</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>257</v>
@@ -8370,7 +8370,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>30</v>
@@ -8382,13 +8382,13 @@
         <v>3</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>257</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>30</v>
@@ -8408,13 +8408,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>257</v>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>30</v>
@@ -8434,13 +8434,13 @@
         <v>7</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>257</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>36</v>
@@ -8460,21 +8460,21 @@
         <v>1000</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>297</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>30</v>
@@ -8486,21 +8486,21 @@
         <v>3</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>30</v>
@@ -8513,21 +8513,21 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>30</v>
@@ -8539,16 +8539,16 @@
         <v>7</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -8569,7 +8569,7 @@
   </sheetPr>
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -10666,15 +10666,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.9285714285714"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.96428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.0714285714286"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="116.525510204082"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.9693877551021"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.96428571428571"/>
@@ -11682,7 +11682,7 @@
         <v>307</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -11694,7 +11694,7 @@
         <v>308</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>240</v>
@@ -11984,15 +11984,15 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5408163265306"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.96428571428571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="116.525510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.6785714285714"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.9693877551021"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.96428571428571"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="243.739795918367"/>
@@ -12633,7 +12633,7 @@
         <v>370</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -12645,7 +12645,7 @@
         <v>371</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>372</v>
+        <v>255</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>330</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>30</v>
@@ -12668,7 +12668,7 @@
         <v>250</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>304</v>
@@ -12682,7 +12682,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>30</v>
@@ -12694,7 +12694,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>252</v>
@@ -12708,7 +12708,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>30</v>
@@ -12722,7 +12722,7 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>252</v>
@@ -12736,7 +12736,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>30</v>
@@ -12748,7 +12748,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>252</v>
@@ -12762,7 +12762,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>50</v>
@@ -12774,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>252</v>
@@ -12788,7 +12788,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>50</v>
@@ -12800,13 +12800,13 @@
         <v>500</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>257</v>
@@ -12814,7 +12814,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>30</v>
@@ -12826,13 +12826,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>257</v>
@@ -12840,7 +12840,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>24</v>
@@ -12852,13 +12852,13 @@
         <v>2.4</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>257</v>
@@ -12866,7 +12866,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>60</v>
@@ -12878,13 +12878,13 @@
         <v>300</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>255</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>257</v>
@@ -12892,7 +12892,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>30</v>
@@ -12904,13 +12904,13 @@
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>257</v>
@@ -12918,7 +12918,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>30</v>
@@ -12930,13 +12930,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>257</v>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>30</v>
@@ -12956,13 +12956,13 @@
         <v>7</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>257</v>
@@ -12970,7 +12970,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>50</v>
@@ -12982,13 +12982,13 @@
         <v>500</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>304</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>268</v>
@@ -12996,7 +12996,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>30</v>
@@ -13008,13 +13008,13 @@
         <v>3.14159265358979</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>268</v>
@@ -13022,7 +13022,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>24</v>
@@ -13034,13 +13034,13 @@
         <v>2.4</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>268</v>
@@ -13048,7 +13048,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHei